--- a/assignment/output.xlsx
+++ b/assignment/output.xlsx
@@ -561,51 +561,51 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/what-jobs-will-robots-take-from-humans-in-the-future/</t>
+          <t>https://insights.blackcoffer.com/how-machine-learning-will-affect-your-business/</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>965</v>
+        <v>377</v>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>0.333333330246913</v>
+        <v>0.5357142761479591</v>
       </c>
       <c r="G3" t="n">
-        <v>0.111917098329619</v>
+        <v>0.148541113664347</v>
       </c>
       <c r="H3" t="n">
-        <v>19.91666666666667</v>
+        <v>20.76470588235294</v>
       </c>
       <c r="I3" t="n">
-        <v>19.82142857142857</v>
+        <v>20.52941176470588</v>
       </c>
       <c r="J3" t="n">
-        <v>422</v>
+        <v>119</v>
       </c>
       <c r="K3" t="n">
-        <v>0.252241482367005</v>
+        <v>0.168555240793201</v>
       </c>
       <c r="L3" t="n">
-        <v>8.06756325961347</v>
+        <v>8.373304449258457</v>
       </c>
       <c r="M3" t="n">
-        <v>1.877465630603705</v>
+        <v>1.624645892351274</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>5.364614465032875</v>
+        <v>4.73371104815864</v>
       </c>
     </row>
     <row r="4">
@@ -659,345 +659,345 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/what-if-the-creation-is-taking-over-the-creator/</t>
+          <t>https://insights.blackcoffer.com/will-machine-replace-the-human-in-the-future-of-work/</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>739</v>
+        <v>817</v>
       </c>
       <c r="D5" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
-        <v>0.314814811899862</v>
+        <v>0.524752470051955</v>
       </c>
       <c r="G5" t="n">
-        <v>0.146143436879372</v>
+        <v>0.123623010864598</v>
       </c>
       <c r="H5" t="n">
-        <v>18.12820512820513</v>
+        <v>17.23863636363636</v>
       </c>
       <c r="I5" t="n">
-        <v>17.93589743589743</v>
+        <v>17.28409090909091</v>
       </c>
       <c r="J5" t="n">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="K5" t="n">
-        <v>0.157001414427157</v>
+        <v>0.168094924192485</v>
       </c>
       <c r="L5" t="n">
-        <v>7.314082617052914</v>
+        <v>6.96269251513154</v>
       </c>
       <c r="M5" t="n">
-        <v>1.64073550212164</v>
+        <v>1.700725115359261</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>4.777934936350778</v>
+        <v>4.777191825972314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/will-machine-replace-the-human-in-the-future-of-work/</t>
+          <t>https://insights.blackcoffer.com/in-future-or-in-upcoming-years-humans-and-machines-are-going-to-work-together-in-every-field-of-work/</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>817</v>
+        <v>394</v>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>0.524752470051955</v>
+        <v>0.39999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.123623010864598</v>
+        <v>0.101522842381921</v>
       </c>
       <c r="H6" t="n">
-        <v>17.23863636363636</v>
+        <v>16.34090909090909</v>
       </c>
       <c r="I6" t="n">
-        <v>17.28409090909091</v>
+        <v>16.47727272727273</v>
       </c>
       <c r="J6" t="n">
-        <v>255</v>
+        <v>135</v>
       </c>
       <c r="K6" t="n">
-        <v>0.168094924192485</v>
+        <v>0.187760778859527</v>
       </c>
       <c r="L6" t="n">
-        <v>6.96269251513154</v>
+        <v>6.611467947907447</v>
       </c>
       <c r="M6" t="n">
-        <v>1.700725115359261</v>
+        <v>1.74269819193324</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>4.777191825972314</v>
+        <v>5.05980528511822</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/in-future-or-in-upcoming-years-humans-and-machines-are-going-to-work-together-in-every-field-of-work/</t>
+          <t>https://insights.blackcoffer.com/what-jobs-will-robots-take-from-humans-in-the-future/</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>394</v>
+        <v>965</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F7" t="n">
-        <v>0.39999999</v>
+        <v>0.333333330246913</v>
       </c>
       <c r="G7" t="n">
-        <v>0.101522842381921</v>
+        <v>0.111917098329619</v>
       </c>
       <c r="H7" t="n">
-        <v>16.34090909090909</v>
+        <v>19.91666666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>16.47727272727273</v>
+        <v>19.82142857142857</v>
       </c>
       <c r="J7" t="n">
-        <v>135</v>
+        <v>422</v>
       </c>
       <c r="K7" t="n">
-        <v>0.187760778859527</v>
+        <v>0.252241482367005</v>
       </c>
       <c r="L7" t="n">
-        <v>6.611467947907447</v>
+        <v>8.06756325961347</v>
       </c>
       <c r="M7" t="n">
-        <v>1.74269819193324</v>
+        <v>1.877465630603705</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>5.05980528511822</v>
+        <v>5.364614465032875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/man-and-machines-together-machines-are-more-diligent-than-humans-blackcoffe/</t>
+          <t>https://insights.blackcoffer.com/deep-learning-impact-on-areas-of-e-learning/</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>647</v>
+        <v>1154</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F8" t="n">
-        <v>0.392405058323986</v>
+        <v>0.322314046923024</v>
       </c>
       <c r="G8" t="n">
-        <v>0.12210200908485</v>
+        <v>0.104852686217631</v>
       </c>
       <c r="H8" t="n">
-        <v>22.87037037037037</v>
+        <v>27.05063291139241</v>
       </c>
       <c r="I8" t="n">
-        <v>22.64814814814815</v>
+        <v>26.9873417721519</v>
       </c>
       <c r="J8" t="n">
-        <v>220</v>
+        <v>435</v>
       </c>
       <c r="K8" t="n">
-        <v>0.178137651821862</v>
+        <v>0.203556387459054</v>
       </c>
       <c r="L8" t="n">
-        <v>9.219403208876894</v>
+        <v>10.90167571954058</v>
       </c>
       <c r="M8" t="n">
-        <v>1.702024291497975</v>
+        <v>1.752456715021057</v>
       </c>
       <c r="N8" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>4.9417004048583</v>
+        <v>4.880673841834347</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-machine-learning-will-affect-your-business/</t>
+          <t>https://insights.blackcoffer.com/man-and-machines-together-machines-are-more-diligent-than-humans-blackcoffe/</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>377</v>
+        <v>647</v>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5357142761479591</v>
+        <v>0.392405058323986</v>
       </c>
       <c r="G9" t="n">
-        <v>0.148541113664347</v>
+        <v>0.12210200908485</v>
       </c>
       <c r="H9" t="n">
-        <v>20.76470588235294</v>
+        <v>22.87037037037037</v>
       </c>
       <c r="I9" t="n">
-        <v>20.52941176470588</v>
+        <v>22.64814814814815</v>
       </c>
       <c r="J9" t="n">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="K9" t="n">
-        <v>0.168555240793201</v>
+        <v>0.178137651821862</v>
       </c>
       <c r="L9" t="n">
-        <v>8.373304449258457</v>
+        <v>9.219403208876894</v>
       </c>
       <c r="M9" t="n">
-        <v>1.624645892351274</v>
+        <v>1.702024291497975</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O9" t="n">
-        <v>4.73371104815864</v>
+        <v>4.9417004048583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-to-protect-future-data-and-its-privacy-blackcoffer/</t>
+          <t>https://insights.blackcoffer.com/what-if-the-creation-is-taking-over-the-creator/</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1058</v>
+        <v>739</v>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.06666666611111101</v>
+        <v>0.314814811899862</v>
       </c>
       <c r="G10" t="n">
-        <v>0.113421549987314</v>
+        <v>0.146143436879372</v>
       </c>
       <c r="H10" t="n">
-        <v>20.78888888888889</v>
+        <v>18.12820512820513</v>
       </c>
       <c r="I10" t="n">
-        <v>20.38888888888889</v>
+        <v>17.93589743589743</v>
       </c>
       <c r="J10" t="n">
-        <v>404</v>
+        <v>222</v>
       </c>
       <c r="K10" t="n">
-        <v>0.215927311598075</v>
+        <v>0.157001414427157</v>
       </c>
       <c r="L10" t="n">
-        <v>8.401926480194787</v>
+        <v>7.314082617052914</v>
       </c>
       <c r="M10" t="n">
-        <v>1.7632282202031</v>
+        <v>1.64073550212164</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>5.025120256547301</v>
+        <v>4.777934936350778</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/deep-learning-impact-on-areas-of-e-learning/</t>
+          <t>https://insights.blackcoffer.com/how-to-protect-future-data-and-its-privacy-blackcoffer/</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1154</v>
+        <v>1058</v>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F11" t="n">
-        <v>0.322314046923024</v>
+        <v>-0.06666666611111101</v>
       </c>
       <c r="G11" t="n">
-        <v>0.104852686217631</v>
+        <v>0.113421549987314</v>
       </c>
       <c r="H11" t="n">
-        <v>27.05063291139241</v>
+        <v>20.78888888888889</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9873417721519</v>
+        <v>20.38888888888889</v>
       </c>
       <c r="J11" t="n">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="K11" t="n">
-        <v>0.203556387459054</v>
+        <v>0.215927311598075</v>
       </c>
       <c r="L11" t="n">
-        <v>10.90167571954058</v>
+        <v>8.401926480194787</v>
       </c>
       <c r="M11" t="n">
-        <v>1.752456715021057</v>
+        <v>1.7632282202031</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>4.880673841834347</v>
+        <v>5.025120256547301</v>
       </c>
     </row>
     <row r="12">
@@ -1149,345 +1149,345 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-human-robotics-machine-future-planet-blackcoffer-thinking-jobs-workplace/</t>
+          <t>https://insights.blackcoffer.com/all-you-need-to-know-about-online-marketing/</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.183098588970442</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09957924249708301</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>16.02666666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.06666666666667</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.207986688851913</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>6.493861342207433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.727121464226289</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4.978369384359401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-tool-alexa-google-assistant-finance-banking-tool-future/</t>
+          <t>https://insights.blackcoffer.com/ai-human-robotics-machine-future-planet-blackcoffer-thinking-jobs-workplace/</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>298</v>
+        <v>713</v>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999999964285715</v>
+        <v>0.183098588970442</v>
       </c>
       <c r="G16" t="n">
-        <v>0.093959731228323</v>
+        <v>0.09957924249708301</v>
       </c>
       <c r="H16" t="n">
-        <v>23.80952380952381</v>
+        <v>16.02666666666667</v>
       </c>
       <c r="I16" t="n">
-        <v>23.76190476190476</v>
+        <v>16.06666666666667</v>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K16" t="n">
-        <v>0.28</v>
+        <v>0.207986688851913</v>
       </c>
       <c r="L16" t="n">
-        <v>9.635809523809526</v>
+        <v>6.493861342207433</v>
       </c>
       <c r="M16" t="n">
-        <v>1.93</v>
+        <v>1.727121464226289</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>5.412</v>
+        <v>4.978369384359401</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-healthcare-revolution-ml-technology-algorithm-google-analytics-industrialrevolution/</t>
+          <t>https://insights.blackcoffer.com/evolution-of-advertising-industry/</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>886</v>
+        <v>178</v>
       </c>
       <c r="D17" t="n">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0.442857139693877</v>
+        <v>0.3333332962963</v>
       </c>
       <c r="G17" t="n">
-        <v>0.158013543839713</v>
+        <v>0.05056179746875301</v>
       </c>
       <c r="H17" t="n">
-        <v>224.125</v>
+        <v>15.47368421052632</v>
       </c>
       <c r="I17" t="n">
-        <v>222.75</v>
+        <v>15.63157894736842</v>
       </c>
       <c r="J17" t="n">
-        <v>318</v>
+        <v>73</v>
       </c>
       <c r="K17" t="n">
-        <v>0.177356385945343</v>
+        <v>0.248299319727891</v>
       </c>
       <c r="L17" t="n">
-        <v>89.72094255437814</v>
+        <v>6.288793412101683</v>
       </c>
       <c r="M17" t="n">
-        <v>1.656999442275515</v>
+        <v>1.863945578231292</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>4.685443390964863</v>
+        <v>5.445578231292517</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/all-you-need-to-know-about-online-marketing/</t>
+          <t>https://insights.blackcoffer.com/how-data-analytics-can-help-your-business-respond-to-the-impact-of-covid-19/</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0.199999960000008</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.050505049994898</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>27.83333333333333</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.25595238095238</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>11.30238095238095</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.851190476190476</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>5.327380952380952</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/evolution-of-advertising-industry/</t>
+          <t>https://insights.blackcoffer.com/ai-healthcare-revolution-ml-technology-algorithm-google-analytics-industrialrevolution/</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>178</v>
+        <v>886</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3333332962963</v>
+        <v>0.442857139693877</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05056179746875301</v>
+        <v>0.158013543839713</v>
       </c>
       <c r="H19" t="n">
-        <v>15.47368421052632</v>
+        <v>224.125</v>
       </c>
       <c r="I19" t="n">
-        <v>15.63157894736842</v>
+        <v>222.75</v>
       </c>
       <c r="J19" t="n">
-        <v>73</v>
+        <v>318</v>
       </c>
       <c r="K19" t="n">
-        <v>0.248299319727891</v>
+        <v>0.177356385945343</v>
       </c>
       <c r="L19" t="n">
-        <v>6.288793412101683</v>
+        <v>89.72094255437814</v>
       </c>
       <c r="M19" t="n">
-        <v>1.863945578231292</v>
+        <v>1.656999442275515</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>5.445578231292517</v>
+        <v>4.685443390964863</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-data-analytics-can-help-your-business-respond-to-the-impact-of-covid-19/</t>
+          <t>https://insights.blackcoffer.com/how-data-analytics-and-ai-are-used-to-halt-the-covid-19-pandemic/</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.199999960000008</v>
+        <v>0.199999994285714</v>
       </c>
       <c r="G20" t="n">
-        <v>0.050505049994898</v>
+        <v>0.08928571405794401</v>
       </c>
       <c r="H20" t="n">
-        <v>28</v>
+        <v>25.28571428571428</v>
       </c>
       <c r="I20" t="n">
-        <v>27.83333333333333</v>
+        <v>25.46428571428572</v>
       </c>
       <c r="J20" t="n">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="K20" t="n">
-        <v>0.25595238095238</v>
+        <v>0.199152542372881</v>
       </c>
       <c r="L20" t="n">
-        <v>11.30238095238095</v>
+        <v>10.19394673123487</v>
       </c>
       <c r="M20" t="n">
-        <v>1.851190476190476</v>
+        <v>1.733050847457627</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>5.327380952380952</v>
+        <v>4.96045197740113</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/environmental-impact-of-the-covid-19-pandemic-lesson-for-the-future/</t>
+          <t>https://insights.blackcoffer.com/ai-tool-alexa-google-assistant-finance-banking-tool-future/</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>752</v>
+        <v>298</v>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.326923073779585</v>
+        <v>0.999999964285715</v>
       </c>
       <c r="G21" t="n">
-        <v>0.138297872156518</v>
+        <v>0.093959731228323</v>
       </c>
       <c r="H21" t="n">
-        <v>24.70909090909091</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="I21" t="n">
-        <v>24.81818181818182</v>
+        <v>23.76190476190476</v>
       </c>
       <c r="J21" t="n">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
-        <v>0.198675496688741</v>
+        <v>0.28</v>
       </c>
       <c r="L21" t="n">
-        <v>9.963106562311863</v>
+        <v>9.635809523809526</v>
       </c>
       <c r="M21" t="n">
-        <v>1.757174392935982</v>
+        <v>1.93</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>5.091243561442237</v>
+        <v>5.412</v>
       </c>
     </row>
     <row r="22">
@@ -1541,443 +1541,443 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/difference-between-artificial-intelligence-machine-learning-statistics-and-data-mining/</t>
+          <t>https://insights.blackcoffer.com/how-google-fit-measure-heart-and-respiratory-rates-using-a-phone/</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>946</v>
+        <v>205</v>
       </c>
       <c r="D23" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.308411212070923</v>
+        <v>0.7999999200000081</v>
       </c>
       <c r="G23" t="n">
-        <v>0.113107822290583</v>
+        <v>0.04878048756692401</v>
       </c>
       <c r="H23" t="n">
-        <v>17.21100917431193</v>
+        <v>23.4</v>
       </c>
       <c r="I23" t="n">
-        <v>17.19266055045872</v>
+        <v>23.06666666666667</v>
       </c>
       <c r="J23" t="n">
-        <v>327</v>
+        <v>58</v>
       </c>
       <c r="K23" t="n">
-        <v>0.174307036247334</v>
+        <v>0.165242165242165</v>
       </c>
       <c r="L23" t="n">
-        <v>6.954126484223704</v>
+        <v>9.426096866096866</v>
       </c>
       <c r="M23" t="n">
-        <v>1.689765458422174</v>
+        <v>1.698005698005698</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>4.812366737739872</v>
+        <v>4.894586894586896</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-data-analytics-and-ai-are-used-to-halt-the-covid-19-pandemic/</t>
+          <t>https://insights.blackcoffer.com/environmental-impact-of-the-covid-19-pandemic-lesson-for-the-future/</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>392</v>
+        <v>752</v>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F24" t="n">
-        <v>0.199999994285714</v>
+        <v>-0.326923073779585</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08928571405794401</v>
+        <v>0.138297872156518</v>
       </c>
       <c r="H24" t="n">
-        <v>25.28571428571428</v>
+        <v>24.70909090909091</v>
       </c>
       <c r="I24" t="n">
-        <v>25.46428571428572</v>
+        <v>24.81818181818182</v>
       </c>
       <c r="J24" t="n">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="K24" t="n">
-        <v>0.199152542372881</v>
+        <v>0.198675496688741</v>
       </c>
       <c r="L24" t="n">
-        <v>10.19394673123487</v>
+        <v>9.963106562311863</v>
       </c>
       <c r="M24" t="n">
-        <v>1.733050847457627</v>
+        <v>1.757174392935982</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>4.96045197740113</v>
+        <v>5.091243561442237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-google-fit-measure-heart-and-respiratory-rates-using-a-phone/</t>
+          <t>https://insights.blackcoffer.com/difference-between-artificial-intelligence-machine-learning-statistics-and-data-mining/</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>205</v>
+        <v>946</v>
       </c>
       <c r="D25" t="n">
+        <v>70</v>
+      </c>
+      <c r="E25" t="n">
+        <v>37</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.308411212070923</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.113107822290583</v>
+      </c>
+      <c r="H25" t="n">
+        <v>17.21100917431193</v>
+      </c>
+      <c r="I25" t="n">
+        <v>17.19266055045872</v>
+      </c>
+      <c r="J25" t="n">
+        <v>327</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.174307036247334</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.954126484223704</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.689765458422174</v>
+      </c>
+      <c r="N25" t="n">
         <v>9</v>
       </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.7999999200000081</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.04878048756692401</v>
-      </c>
-      <c r="H25" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>23.06666666666667</v>
-      </c>
-      <c r="J25" t="n">
-        <v>58</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.165242165242165</v>
-      </c>
-      <c r="L25" t="n">
-        <v>9.426096866096866</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.698005698005698</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
       <c r="O25" t="n">
-        <v>4.894586894586896</v>
+        <v>4.812366737739872</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/what-is-the-future-of-mobile-apps/</t>
+          <t>https://insights.blackcoffer.com/impact-of-ai-in-health-and-medicine/</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>426</v>
+        <v>253</v>
       </c>
       <c r="D26" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>0.529411749134948</v>
+        <v>0.272727260330579</v>
       </c>
       <c r="G26" t="n">
-        <v>0.079812206385417</v>
+        <v>0.086956521395428</v>
       </c>
       <c r="H26" t="n">
-        <v>23.51515151515152</v>
+        <v>23.15789473684211</v>
       </c>
       <c r="I26" t="n">
-        <v>23.42424242424243</v>
+        <v>23.10526315789474</v>
       </c>
       <c r="J26" t="n">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="K26" t="n">
-        <v>0.190721649484536</v>
+        <v>0.256818181818181</v>
       </c>
       <c r="L26" t="n">
-        <v>9.482349265854422</v>
+        <v>9.365885167464116</v>
       </c>
       <c r="M26" t="n">
-        <v>1.682989690721649</v>
+        <v>1.888636363636363</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>4.793814432989691</v>
+        <v>5.177272727272728</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/telemedicine-what-patients-like-and-dislike-about-it/</t>
+          <t>https://insights.blackcoffer.com/can-robots-tackle-late-life-loneliness/</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>176</v>
+        <v>397</v>
       </c>
       <c r="D27" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" t="n">
+        <v>36</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.142857140589569</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.158690175922694</v>
+      </c>
+      <c r="H27" t="n">
+        <v>14.81818181818182</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14.45454545454546</v>
+      </c>
+      <c r="J27" t="n">
+        <v>119</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.14601226993865</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5.985677635248187</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.591411042944785</v>
+      </c>
+      <c r="N27" t="n">
         <v>19</v>
       </c>
-      <c r="E27" t="n">
-        <v>8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.407407392318244</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.153409090037448</v>
-      </c>
-      <c r="H27" t="n">
-        <v>14.15384615384615</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14.03846153846154</v>
-      </c>
-      <c r="J27" t="n">
-        <v>55</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.14945652173913</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5.721321070234114</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
-        <v>5.019021739130435</v>
+        <v>4.595092024539877</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-ai-in-health-and-medicine/</t>
+          <t>https://insights.blackcoffer.com/how-we-forecast-future-technologies/</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.272727260330579</v>
+        <v>0.99999980000004</v>
       </c>
       <c r="G28" t="n">
-        <v>0.086956521395428</v>
+        <v>0.06172839429964901</v>
       </c>
       <c r="H28" t="n">
-        <v>23.15789473684211</v>
+        <v>15.44444444444444</v>
       </c>
       <c r="I28" t="n">
-        <v>23.10526315789474</v>
+        <v>15.44444444444444</v>
       </c>
       <c r="J28" t="n">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="K28" t="n">
-        <v>0.256818181818181</v>
+        <v>0.280575539568345</v>
       </c>
       <c r="L28" t="n">
-        <v>9.365885167464116</v>
+        <v>6.290007993605116</v>
       </c>
       <c r="M28" t="n">
-        <v>1.888636363636363</v>
+        <v>2.007194244604316</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>5.177272727272728</v>
+        <v>5.273381294964029</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-we-forecast-future-technologies/</t>
+          <t>https://insights.blackcoffer.com/what-is-the-future-of-mobile-apps/</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>0.99999980000004</v>
+        <v>0.529411749134948</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06172839429964901</v>
+        <v>0.079812206385417</v>
       </c>
       <c r="H29" t="n">
-        <v>15.44444444444444</v>
+        <v>23.51515151515152</v>
       </c>
       <c r="I29" t="n">
-        <v>15.44444444444444</v>
+        <v>23.42424242424243</v>
       </c>
       <c r="J29" t="n">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="K29" t="n">
-        <v>0.280575539568345</v>
+        <v>0.190721649484536</v>
       </c>
       <c r="L29" t="n">
-        <v>6.290007993605116</v>
+        <v>9.482349265854422</v>
       </c>
       <c r="M29" t="n">
-        <v>2.007194244604316</v>
+        <v>1.682989690721649</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>5.273381294964029</v>
+        <v>4.793814432989691</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/embedding-care-robots-into-society-socio-technical-considerations/</t>
+          <t>https://insights.blackcoffer.com/telemedicine-what-patients-like-and-dislike-about-it/</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>0.666666611111115</v>
+        <v>0.407407392318244</v>
       </c>
       <c r="G30" t="n">
-        <v>0.144578311511104</v>
+        <v>0.153409090037448</v>
       </c>
       <c r="H30" t="n">
-        <v>19.625</v>
+        <v>14.15384615384615</v>
       </c>
       <c r="I30" t="n">
-        <v>19.625</v>
+        <v>14.03846153846154</v>
       </c>
       <c r="J30" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="K30" t="n">
-        <v>0.133757961783439</v>
+        <v>0.14945652173913</v>
       </c>
       <c r="L30" t="n">
-        <v>7.903503184713376</v>
+        <v>5.721321070234114</v>
       </c>
       <c r="M30" t="n">
-        <v>1.643312101910828</v>
+        <v>1.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>4.624203821656051</v>
+        <v>5.019021739130435</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/can-robots-tackle-late-life-loneliness/</t>
+          <t>https://insights.blackcoffer.com/are-we-any-closer-to-preventing-a-nuclear-holocaust/</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>397</v>
+        <v>73</v>
       </c>
       <c r="D31" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.142857140589569</v>
+        <v>-0.5555554938271671</v>
       </c>
       <c r="G31" t="n">
-        <v>0.158690175922694</v>
+        <v>0.123287669544004</v>
       </c>
       <c r="H31" t="n">
-        <v>14.81818181818182</v>
+        <v>15</v>
       </c>
       <c r="I31" t="n">
-        <v>14.45454545454546</v>
+        <v>15</v>
       </c>
       <c r="J31" t="n">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="K31" t="n">
-        <v>0.14601226993865</v>
+        <v>0.093333333333333</v>
       </c>
       <c r="L31" t="n">
-        <v>5.985677635248187</v>
+        <v>6.037333333333334</v>
       </c>
       <c r="M31" t="n">
-        <v>1.591411042944785</v>
+        <v>1.44</v>
       </c>
       <c r="N31" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>4.595092024539877</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="32">
@@ -2031,51 +2031,51 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/are-we-any-closer-to-preventing-a-nuclear-holocaust/</t>
+          <t>https://insights.blackcoffer.com/embedding-care-robots-into-society-socio-technical-considerations/</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
         <v>2</v>
       </c>
-      <c r="E33" t="n">
-        <v>7</v>
-      </c>
       <c r="F33" t="n">
-        <v>-0.5555554938271671</v>
+        <v>0.666666611111115</v>
       </c>
       <c r="G33" t="n">
-        <v>0.123287669544004</v>
+        <v>0.144578311511104</v>
       </c>
       <c r="H33" t="n">
-        <v>15</v>
+        <v>19.625</v>
       </c>
       <c r="I33" t="n">
-        <v>15</v>
+        <v>19.625</v>
       </c>
       <c r="J33" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K33" t="n">
-        <v>0.093333333333333</v>
+        <v>0.133757961783439</v>
       </c>
       <c r="L33" t="n">
-        <v>6.037333333333334</v>
+        <v>7.903503184713376</v>
       </c>
       <c r="M33" t="n">
-        <v>1.44</v>
+        <v>1.643312101910828</v>
       </c>
       <c r="N33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>4.44</v>
+        <v>4.624203821656051</v>
       </c>
     </row>
     <row r="34">
@@ -2129,100 +2129,100 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/will-we-ever-colonize-outer-space/</t>
+          <t>https://insights.blackcoffer.com/management-challenges-for-future-digitalization-of-healthcare-services/</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>867</v>
+        <v>391</v>
       </c>
       <c r="D35" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E35" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4249999946875</v>
+        <v>0.5686274398308341</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09227220289241901</v>
+        <v>0.130434782275102</v>
       </c>
       <c r="H35" t="n">
-        <v>26.28787878787879</v>
+        <v>22.06666666666667</v>
       </c>
       <c r="I35" t="n">
-        <v>26.31818181818182</v>
+        <v>22.06666666666667</v>
       </c>
       <c r="J35" t="n">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="K35" t="n">
-        <v>0.155043227665706</v>
+        <v>0.255287009063444</v>
       </c>
       <c r="L35" t="n">
-        <v>10.5771688062178</v>
+        <v>8.928781470292044</v>
       </c>
       <c r="M35" t="n">
-        <v>1.65014409221902</v>
+        <v>1.919939577039274</v>
       </c>
       <c r="N35" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>4.717579250720461</v>
+        <v>5.551359516616314</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/what-is-the-chance-homo-sapiens-will-survive-for-the-next-500-years/</t>
+          <t>https://insights.blackcoffer.com/will-we-ever-colonize-outer-space/</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>769</v>
+        <v>867</v>
       </c>
       <c r="D36" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E36" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F36" t="n">
-        <v>0.315068488834678</v>
+        <v>0.4249999946875</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09492847842011901</v>
+        <v>0.09227220289241901</v>
       </c>
       <c r="H36" t="n">
-        <v>18.1025641025641</v>
+        <v>26.28787878787879</v>
       </c>
       <c r="I36" t="n">
-        <v>18.19230769230769</v>
+        <v>26.31818181818182</v>
       </c>
       <c r="J36" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K36" t="n">
-        <v>0.172804532577903</v>
+        <v>0.155043227665706</v>
       </c>
       <c r="L36" t="n">
-        <v>7.310147454056802</v>
+        <v>10.5771688062178</v>
       </c>
       <c r="M36" t="n">
-        <v>1.660764872521246</v>
+        <v>1.65014409221902</v>
       </c>
       <c r="N36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>4.828611898016997</v>
+        <v>4.717579250720461</v>
       </c>
     </row>
     <row r="37">
@@ -2276,1521 +2276,1521 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/management-challenges-for-future-digitalization-of-healthcare-services/</t>
+          <t>https://insights.blackcoffer.com/how-you-lead-a-project-or-a-team-without-any-technical-expertise/</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>391</v>
+        <v>649</v>
       </c>
       <c r="D38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E38" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5686274398308341</v>
+        <v>0.754385951677439</v>
       </c>
       <c r="G38" t="n">
-        <v>0.130434782275102</v>
+        <v>0.08782742667515001</v>
       </c>
       <c r="H38" t="n">
-        <v>22.06666666666667</v>
+        <v>21.86153846153846</v>
       </c>
       <c r="I38" t="n">
-        <v>22.06666666666667</v>
+        <v>21.50769230769231</v>
       </c>
       <c r="J38" t="n">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="K38" t="n">
-        <v>0.255287009063444</v>
+        <v>0.139338494018296</v>
       </c>
       <c r="L38" t="n">
-        <v>8.928781470292044</v>
+        <v>8.800350782222704</v>
       </c>
       <c r="M38" t="n">
-        <v>1.919939577039274</v>
+        <v>1.536945812807881</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O38" t="n">
-        <v>5.551359516616314</v>
+        <v>4.458128078817734</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-you-lead-a-project-or-a-team-without-any-technical-expertise/</t>
+          <t>https://insights.blackcoffer.com/how-does-artificial-intelligence-affect-the-environment/</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>649</v>
+        <v>860</v>
       </c>
       <c r="D39" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>0.754385951677439</v>
+        <v>0.499999991666666</v>
       </c>
       <c r="G39" t="n">
-        <v>0.08782742667515001</v>
+        <v>0.06976744177934001</v>
       </c>
       <c r="H39" t="n">
-        <v>21.86153846153846</v>
+        <v>23.47619047619047</v>
       </c>
       <c r="I39" t="n">
-        <v>21.50769230769231</v>
+        <v>23.41269841269841</v>
       </c>
       <c r="J39" t="n">
-        <v>198</v>
+        <v>332</v>
       </c>
       <c r="K39" t="n">
-        <v>0.139338494018296</v>
+        <v>0.224475997295469</v>
       </c>
       <c r="L39" t="n">
-        <v>8.800350782222704</v>
+        <v>9.480266589394379</v>
       </c>
       <c r="M39" t="n">
-        <v>1.536945812807881</v>
+        <v>1.812035158891142</v>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O39" t="n">
-        <v>4.458128078817734</v>
+        <v>5.138607167004733</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/can-you-be-great-leader-without-technical-expertise/</t>
+          <t>https://insights.blackcoffer.com/how-to-overcome-your-fear-of-making-mistakes-2/</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>226</v>
+        <v>472</v>
       </c>
       <c r="D40" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7209302157923201</v>
+        <v>-0.333333330065359</v>
       </c>
       <c r="G40" t="n">
-        <v>0.190265485883781</v>
+        <v>0.216101694457411</v>
       </c>
       <c r="H40" t="n">
-        <v>29.125</v>
+        <v>13.87142857142857</v>
       </c>
       <c r="I40" t="n">
-        <v>28.75</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="J40" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="K40" t="n">
-        <v>0.195278969957081</v>
+        <v>0.151390319258496</v>
       </c>
       <c r="L40" t="n">
-        <v>11.72811158798283</v>
+        <v>5.609127556274828</v>
       </c>
       <c r="M40" t="n">
-        <v>1.650214592274678</v>
+        <v>1.602471678681771</v>
       </c>
       <c r="N40" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
-        <v>4.59656652360515</v>
+        <v>4.629248197734294</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-does-artificial-intelligence-affect-the-environment/</t>
+          <t>https://insights.blackcoffer.com/can-you-be-great-leader-without-technical-expertise/</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>860</v>
+        <v>226</v>
       </c>
       <c r="D41" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
-        <v>0.499999991666666</v>
+        <v>0.7209302157923201</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06976744177934001</v>
+        <v>0.190265485883781</v>
       </c>
       <c r="H41" t="n">
-        <v>23.47619047619047</v>
+        <v>29.125</v>
       </c>
       <c r="I41" t="n">
-        <v>23.41269841269841</v>
+        <v>28.75</v>
       </c>
       <c r="J41" t="n">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="K41" t="n">
-        <v>0.224475997295469</v>
+        <v>0.195278969957081</v>
       </c>
       <c r="L41" t="n">
-        <v>9.480266589394379</v>
+        <v>11.72811158798283</v>
       </c>
       <c r="M41" t="n">
-        <v>1.812035158891142</v>
+        <v>1.650214592274678</v>
       </c>
       <c r="N41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O41" t="n">
-        <v>5.138607167004733</v>
+        <v>4.59656652360515</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-to-overcome-your-fear-of-making-mistakes-2/</t>
+          <t>https://insights.blackcoffer.com/global-financial-crisis-2008-causes-effects-and-its-solution/</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>472</v>
+        <v>564</v>
       </c>
       <c r="D42" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E42" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.333333330065359</v>
+        <v>-0.18518518175583</v>
       </c>
       <c r="G42" t="n">
-        <v>0.216101694457411</v>
+        <v>0.09574468068130301</v>
       </c>
       <c r="H42" t="n">
-        <v>13.87142857142857</v>
+        <v>23.11627906976744</v>
       </c>
       <c r="I42" t="n">
-        <v>13.57142857142857</v>
+        <v>23.30232558139535</v>
       </c>
       <c r="J42" t="n">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K42" t="n">
-        <v>0.151390319258496</v>
+        <v>0.142857142857142</v>
       </c>
       <c r="L42" t="n">
-        <v>5.609127556274828</v>
+        <v>9.303654485049833</v>
       </c>
       <c r="M42" t="n">
-        <v>1.602471678681771</v>
+        <v>1.580482897384306</v>
       </c>
       <c r="N42" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O42" t="n">
-        <v>4.629248197734294</v>
+        <v>4.789738430583501</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/is-perfection-the-greatest-enemy-of-productivity/</t>
+          <t>https://insights.blackcoffer.com/what-is-the-chance-homo-sapiens-will-survive-for-the-next-500-years/</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>532</v>
+        <v>769</v>
       </c>
       <c r="D43" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E43" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F43" t="n">
-        <v>0.454545448642266</v>
+        <v>0.315068488834678</v>
       </c>
       <c r="G43" t="n">
-        <v>0.144736841833201</v>
+        <v>0.09492847842011901</v>
       </c>
       <c r="H43" t="n">
-        <v>14.58108108108108</v>
+        <v>18.1025641025641</v>
       </c>
       <c r="I43" t="n">
-        <v>14.45945945945946</v>
+        <v>18.19230769230769</v>
       </c>
       <c r="J43" t="n">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="K43" t="n">
-        <v>0.112140871177015</v>
+        <v>0.172804532577903</v>
       </c>
       <c r="L43" t="n">
-        <v>5.877288780903239</v>
+        <v>7.310147454056802</v>
       </c>
       <c r="M43" t="n">
-        <v>1.488415199258572</v>
+        <v>1.660764872521246</v>
       </c>
       <c r="N43" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="O43" t="n">
-        <v>4.421686746987952</v>
+        <v>4.828611898016997</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/global-financial-crisis-2008-causes-effects-and-its-solution/</t>
+          <t>https://insights.blackcoffer.com/is-perfection-the-greatest-enemy-of-productivity/</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="D44" t="n">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E44" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.18518518175583</v>
+        <v>0.454545448642266</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09574468068130301</v>
+        <v>0.144736841833201</v>
       </c>
       <c r="H44" t="n">
-        <v>23.11627906976744</v>
+        <v>14.58108108108108</v>
       </c>
       <c r="I44" t="n">
-        <v>23.30232558139535</v>
+        <v>14.45945945945946</v>
       </c>
       <c r="J44" t="n">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="K44" t="n">
-        <v>0.142857142857142</v>
+        <v>0.112140871177015</v>
       </c>
       <c r="L44" t="n">
-        <v>9.303654485049833</v>
+        <v>5.877288780903239</v>
       </c>
       <c r="M44" t="n">
-        <v>1.580482897384306</v>
+        <v>1.488415199258572</v>
       </c>
       <c r="N44" t="n">
         <v>5</v>
       </c>
       <c r="O44" t="n">
-        <v>4.789738430583501</v>
+        <v>4.421686746987952</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/gender-diversity-and-equality-in-the-tech-industry/</t>
+          <t>https://insights.blackcoffer.com/how-to-overcome-your-fear-of-making-mistakes/</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>608</v>
+        <v>504</v>
       </c>
       <c r="D45" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E45" t="n">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F45" t="n">
-        <v>0.132075469206123</v>
+        <v>-0.3693693660417171</v>
       </c>
       <c r="G45" t="n">
-        <v>0.087171052488205</v>
+        <v>0.220238094801114</v>
       </c>
       <c r="H45" t="n">
-        <v>17.83333333333333</v>
+        <v>14.22222222222222</v>
       </c>
       <c r="I45" t="n">
-        <v>17.83333333333333</v>
+        <v>13.91666666666667</v>
       </c>
       <c r="J45" t="n">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="K45" t="n">
-        <v>0.22803738317757</v>
+        <v>0.15625</v>
       </c>
       <c r="L45" t="n">
-        <v>7.22454828660436</v>
+        <v>5.751388888888889</v>
       </c>
       <c r="M45" t="n">
-        <v>1.849532710280373</v>
+        <v>1.619140625</v>
       </c>
       <c r="N45" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>5.214953271028038</v>
+        <v>4.6787109375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-small-business-can-survive-the-coronavirus-crisis/</t>
+          <t>https://insights.blackcoffer.com/impacts-of-covid-19-on-vegetable-vendors-and-food-stalls/</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>331</v>
+        <v>151</v>
       </c>
       <c r="D46" t="n">
+        <v>9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.199999986666667</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.09933774768650401</v>
+      </c>
+      <c r="H46" t="n">
         <v>26</v>
       </c>
-      <c r="E46" t="n">
-        <v>10</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.4444444320987651</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.108761328976551</v>
-      </c>
-      <c r="H46" t="n">
-        <v>22.20689655172414</v>
-      </c>
       <c r="I46" t="n">
-        <v>22.17241379310345</v>
+        <v>26.27272727272727</v>
       </c>
       <c r="J46" t="n">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="K46" t="n">
-        <v>0.194099378881987</v>
+        <v>0.185314685314685</v>
       </c>
       <c r="L46" t="n">
-        <v>8.96039837224245</v>
+        <v>10.47412587412587</v>
       </c>
       <c r="M46" t="n">
-        <v>1.64751552795031</v>
+        <v>1.72027972027972</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>4.779503105590062</v>
+        <v>4.891608391608392</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impacts-of-covid-19-on-vegetable-vendors-and-food-stalls/</t>
+          <t>https://insights.blackcoffer.com/impacts-of-covid-19-on-vegetable-vendors/</t>
         </is>
       </c>
       <c r="C47" t="n">
+        <v>418</v>
+      </c>
+      <c r="D47" t="n">
+        <v>26</v>
+      </c>
+      <c r="E47" t="n">
+        <v>18</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.18181817768595</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.105263157642911</v>
+      </c>
+      <c r="H47" t="n">
+        <v>31.39130434782609</v>
+      </c>
+      <c r="I47" t="n">
+        <v>31.52173913043478</v>
+      </c>
+      <c r="J47" t="n">
         <v>151</v>
       </c>
-      <c r="D47" t="n">
-        <v>9</v>
-      </c>
-      <c r="E47" t="n">
-        <v>6</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.199999986666667</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.09933774768650401</v>
-      </c>
-      <c r="H47" t="n">
-        <v>26</v>
-      </c>
-      <c r="I47" t="n">
-        <v>26.27272727272727</v>
-      </c>
-      <c r="J47" t="n">
-        <v>53</v>
-      </c>
       <c r="K47" t="n">
-        <v>0.185314685314685</v>
+        <v>0.209141274238227</v>
       </c>
       <c r="L47" t="n">
-        <v>10.47412587412587</v>
+        <v>12.64017824882573</v>
       </c>
       <c r="M47" t="n">
-        <v>1.72027972027972</v>
+        <v>1.822714681440443</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>4.891608391608392</v>
+        <v>5.231301939058172</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impacts-of-covid-19-on-vegetable-vendors/</t>
+          <t>https://insights.blackcoffer.com/how-small-business-can-survive-the-coronavirus-crisis/</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>418</v>
+        <v>331</v>
       </c>
       <c r="D48" t="n">
         <v>26</v>
       </c>
       <c r="E48" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>0.18181817768595</v>
+        <v>0.4444444320987651</v>
       </c>
       <c r="G48" t="n">
-        <v>0.105263157642911</v>
+        <v>0.108761328976551</v>
       </c>
       <c r="H48" t="n">
-        <v>31.39130434782609</v>
+        <v>22.20689655172414</v>
       </c>
       <c r="I48" t="n">
-        <v>31.52173913043478</v>
+        <v>22.17241379310345</v>
       </c>
       <c r="J48" t="n">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="K48" t="n">
-        <v>0.209141274238227</v>
+        <v>0.194099378881987</v>
       </c>
       <c r="L48" t="n">
-        <v>12.64017824882573</v>
+        <v>8.96039837224245</v>
       </c>
       <c r="M48" t="n">
-        <v>1.822714681440443</v>
+        <v>1.64751552795031</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O48" t="n">
-        <v>5.231301939058172</v>
+        <v>4.779503105590062</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-covid-19-pandemic-on-tourism-aviation-industries/</t>
+          <t>https://insights.blackcoffer.com/gender-diversity-and-equality-in-the-tech-industry/</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="D49" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E49" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.05882352825836201</v>
+        <v>0.132075469206123</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08557046965508301</v>
+        <v>0.087171052488205</v>
       </c>
       <c r="H49" t="n">
-        <v>20</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="I49" t="n">
-        <v>20.12727272727273</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="J49" t="n">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="K49" t="n">
-        <v>0.199090909090909</v>
+        <v>0.22803738317757</v>
       </c>
       <c r="L49" t="n">
-        <v>8.079636363636364</v>
+        <v>7.22454828660436</v>
       </c>
       <c r="M49" t="n">
-        <v>1.710909090909091</v>
+        <v>1.849532710280373</v>
       </c>
       <c r="N49" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O49" t="n">
-        <v>4.988181818181818</v>
+        <v>5.214953271028038</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-covid-19-pandemic-on-sports-events-around-the-world/</t>
+          <t>https://insights.blackcoffer.com/online-gaming-adolescent-online-gaming-effects-demotivated-depression-musculoskeletal-and-psychosomatic-symptoms/</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1941</v>
+        <v>884</v>
       </c>
       <c r="D50" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5744680728836581</v>
+        <v>-0.355555551604938</v>
       </c>
       <c r="G50" t="n">
-        <v>0.024214322501692</v>
+        <v>0.101809954635961</v>
       </c>
       <c r="H50" t="n">
-        <v>16.54787234042553</v>
+        <v>25.29824561403509</v>
       </c>
       <c r="I50" t="n">
-        <v>17.1436170212766</v>
+        <v>25.54385964912281</v>
       </c>
       <c r="J50" t="n">
-        <v>433</v>
+        <v>364</v>
       </c>
       <c r="K50" t="n">
-        <v>0.139183542269366</v>
+        <v>0.252427184466019</v>
       </c>
       <c r="L50" t="n">
-        <v>6.67482235307796</v>
+        <v>10.22026911940044</v>
       </c>
       <c r="M50" t="n">
-        <v>1.629379620700739</v>
+        <v>1.884882108183079</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>5.027322404371585</v>
+        <v>5.488210818307905</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/changing-landscape-and-emerging-trends-in-the-indian-it-ites-industry/</t>
+          <t>https://insights.blackcoffer.com/human-rights-outlook/</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>897</v>
+        <v>62</v>
       </c>
       <c r="D51" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E51" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.142857141287284</v>
+        <v>0.6666665555555741</v>
       </c>
       <c r="G51" t="n">
-        <v>0.10144927524922</v>
+        <v>0.09677419198751301</v>
       </c>
       <c r="H51" t="n">
-        <v>21.23456790123457</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="I51" t="n">
-        <v>21.28395061728395</v>
+        <v>18.71428571428572</v>
       </c>
       <c r="J51" t="n">
-        <v>327</v>
+        <v>18</v>
       </c>
       <c r="K51" t="n">
-        <v>0.190116279069767</v>
+        <v>0.138461538461538</v>
       </c>
       <c r="L51" t="n">
-        <v>8.569873672121734</v>
+        <v>7.483956043956045</v>
       </c>
       <c r="M51" t="n">
-        <v>1.735465116279069</v>
+        <v>1.53076923076923</v>
       </c>
       <c r="N51" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>4.96046511627907</v>
+        <v>4.361538461538461</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/online-gaming-adolescent-online-gaming-effects-demotivated-depression-musculoskeletal-and-psychosomatic-symptoms/</t>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19-pandemic-on-tourism-aviation-industries/</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>884</v>
+        <v>596</v>
       </c>
       <c r="D52" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E52" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.355555551604938</v>
+        <v>-0.05882352825836201</v>
       </c>
       <c r="G52" t="n">
-        <v>0.101809954635961</v>
+        <v>0.08557046965508301</v>
       </c>
       <c r="H52" t="n">
-        <v>25.29824561403509</v>
+        <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>25.54385964912281</v>
+        <v>20.12727272727273</v>
       </c>
       <c r="J52" t="n">
-        <v>364</v>
+        <v>219</v>
       </c>
       <c r="K52" t="n">
-        <v>0.252427184466019</v>
+        <v>0.199090909090909</v>
       </c>
       <c r="L52" t="n">
-        <v>10.22026911940044</v>
+        <v>8.079636363636364</v>
       </c>
       <c r="M52" t="n">
-        <v>1.884882108183079</v>
+        <v>1.710909090909091</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O52" t="n">
-        <v>5.488210818307905</v>
+        <v>4.988181818181818</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-voice-search-makes-your-business-a-successful-business/</t>
+          <t>https://insights.blackcoffer.com/changing-landscape-and-emerging-trends-in-the-indian-it-ites-industry/</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>454</v>
+        <v>897</v>
       </c>
       <c r="D53" t="n">
         <v>39</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8139534694429421</v>
+        <v>-0.142857141287284</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09471365617904401</v>
+        <v>0.10144927524922</v>
       </c>
       <c r="H53" t="n">
-        <v>22.67567567567568</v>
+        <v>21.23456790123457</v>
       </c>
       <c r="I53" t="n">
-        <v>22.45945945945946</v>
+        <v>21.28395061728395</v>
       </c>
       <c r="J53" t="n">
-        <v>138</v>
+        <v>327</v>
       </c>
       <c r="K53" t="n">
-        <v>0.164481525625744</v>
+        <v>0.190116279069767</v>
       </c>
       <c r="L53" t="n">
-        <v>9.136062880520569</v>
+        <v>8.569873672121734</v>
       </c>
       <c r="M53" t="n">
-        <v>1.67818831942789</v>
+        <v>1.735465116279069</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O53" t="n">
-        <v>4.867699642431466</v>
+        <v>4.96046511627907</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-to-overcome-your-fear-of-making-mistakes/</t>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19-pandemic-on-sports-events-around-the-world/</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>504</v>
+        <v>1941</v>
       </c>
       <c r="D54" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E54" t="n">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.3693693660417171</v>
+        <v>0.5744680728836581</v>
       </c>
       <c r="G54" t="n">
-        <v>0.220238094801114</v>
+        <v>0.024214322501692</v>
       </c>
       <c r="H54" t="n">
-        <v>14.22222222222222</v>
+        <v>16.54787234042553</v>
       </c>
       <c r="I54" t="n">
-        <v>13.91666666666667</v>
+        <v>17.1436170212766</v>
       </c>
       <c r="J54" t="n">
-        <v>160</v>
+        <v>433</v>
       </c>
       <c r="K54" t="n">
-        <v>0.15625</v>
+        <v>0.139183542269366</v>
       </c>
       <c r="L54" t="n">
-        <v>5.751388888888889</v>
+        <v>6.67482235307796</v>
       </c>
       <c r="M54" t="n">
-        <v>1.619140625</v>
+        <v>1.629379620700739</v>
       </c>
       <c r="N54" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>4.6787109375</v>
+        <v>5.027322404371585</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-the-covid-19-crisis-is-redefining-jobs-and-services/</t>
+          <t>https://insights.blackcoffer.com/impacts-of-covid-19-on-streets-sides-food-stalls/</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>899</v>
+        <v>554</v>
       </c>
       <c r="D55" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E55" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F55" t="n">
-        <v>0.164556959942316</v>
+        <v>0.07462686455780801</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08787541703239601</v>
+        <v>0.120938627940544</v>
       </c>
       <c r="H55" t="n">
-        <v>15.20168067226891</v>
+        <v>21.47826086956522</v>
       </c>
       <c r="I55" t="n">
-        <v>15.17647058823529</v>
+        <v>21.52173913043478</v>
       </c>
       <c r="J55" t="n">
-        <v>342</v>
+        <v>177</v>
       </c>
       <c r="K55" t="n">
-        <v>0.189054726368159</v>
+        <v>0.17914979757085</v>
       </c>
       <c r="L55" t="n">
-        <v>6.156294159454827</v>
+        <v>8.662964266854429</v>
       </c>
       <c r="M55" t="n">
-        <v>1.67551133222775</v>
+        <v>1.671052631578947</v>
       </c>
       <c r="N55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O55" t="n">
-        <v>4.868435599778883</v>
+        <v>4.907894736842105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/human-rights-outlook/</t>
+          <t>https://insights.blackcoffer.com/how-voice-search-makes-your-business-a-successful-business/</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>62</v>
+        <v>454</v>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6666665555555741</v>
+        <v>0.8139534694429421</v>
       </c>
       <c r="G56" t="n">
-        <v>0.09677419198751301</v>
+        <v>0.09471365617904401</v>
       </c>
       <c r="H56" t="n">
-        <v>18.57142857142857</v>
+        <v>22.67567567567568</v>
       </c>
       <c r="I56" t="n">
-        <v>18.71428571428572</v>
+        <v>22.45945945945946</v>
       </c>
       <c r="J56" t="n">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="K56" t="n">
-        <v>0.138461538461538</v>
+        <v>0.164481525625744</v>
       </c>
       <c r="L56" t="n">
-        <v>7.483956043956045</v>
+        <v>9.136062880520569</v>
       </c>
       <c r="M56" t="n">
-        <v>1.53076923076923</v>
+        <v>1.67818831942789</v>
       </c>
       <c r="N56" t="n">
         <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>4.361538461538461</v>
+        <v>4.867699642431466</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-to-increase-social-media-engagement-for-marketers/</t>
+          <t>https://insights.blackcoffer.com/coronavirus-impact-on-energy-markets-2/</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>894</v>
+        <v>941</v>
       </c>
       <c r="D57" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E57" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F57" t="n">
-        <v>0.571428563265306</v>
+        <v>-0.433333326111111</v>
       </c>
       <c r="G57" t="n">
-        <v>0.078299776198769</v>
+        <v>0.06376195529887101</v>
       </c>
       <c r="H57" t="n">
-        <v>18.60227272727273</v>
+        <v>29</v>
       </c>
       <c r="I57" t="n">
-        <v>18.46590909090909</v>
+        <v>29.96428571428572</v>
       </c>
       <c r="J57" t="n">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="K57" t="n">
-        <v>0.186316432498472</v>
+        <v>0.227216748768472</v>
       </c>
       <c r="L57" t="n">
-        <v>7.51543566390848</v>
+        <v>11.69088669950739</v>
       </c>
       <c r="M57" t="n">
-        <v>1.674404398289554</v>
+        <v>1.84051724137931</v>
       </c>
       <c r="N57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>4.880268784361637</v>
+        <v>5.282019704433497</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impacts-of-covid-19-on-streets-sides-food-stalls/</t>
+          <t>https://insights.blackcoffer.com/coronavirus-impact-on-the-hospitality-industry-5/</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>554</v>
+        <v>480</v>
       </c>
       <c r="D58" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E58" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F58" t="n">
-        <v>0.07462686455780801</v>
+        <v>-0.423728806377477</v>
       </c>
       <c r="G58" t="n">
-        <v>0.120938627940544</v>
+        <v>0.12291666641059</v>
       </c>
       <c r="H58" t="n">
-        <v>21.47826086956522</v>
+        <v>18.42553191489362</v>
       </c>
       <c r="I58" t="n">
-        <v>21.52173913043478</v>
+        <v>18.61702127659574</v>
       </c>
       <c r="J58" t="n">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K58" t="n">
-        <v>0.17914979757085</v>
+        <v>0.182448036951501</v>
       </c>
       <c r="L58" t="n">
-        <v>8.662964266854429</v>
+        <v>7.443191980738049</v>
       </c>
       <c r="M58" t="n">
-        <v>1.671052631578947</v>
+        <v>1.741339491916859</v>
       </c>
       <c r="N58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O58" t="n">
-        <v>4.907894736842105</v>
+        <v>5.002309468822171</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/coronavirus-impact-on-energy-markets-2/</t>
+          <t>https://insights.blackcoffer.com/how-the-covid-19-crisis-is-redefining-jobs-and-services/</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>941</v>
+        <v>899</v>
       </c>
       <c r="D59" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E59" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.433333326111111</v>
+        <v>0.164556959942316</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06376195529887101</v>
+        <v>0.08787541703239601</v>
       </c>
       <c r="H59" t="n">
-        <v>29</v>
+        <v>15.20168067226891</v>
       </c>
       <c r="I59" t="n">
-        <v>29.96428571428572</v>
+        <v>15.17647058823529</v>
       </c>
       <c r="J59" t="n">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="K59" t="n">
-        <v>0.227216748768472</v>
+        <v>0.189054726368159</v>
       </c>
       <c r="L59" t="n">
-        <v>11.69088669950739</v>
+        <v>6.156294159454827</v>
       </c>
       <c r="M59" t="n">
-        <v>1.84051724137931</v>
+        <v>1.67551133222775</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O59" t="n">
-        <v>5.282019704433497</v>
+        <v>4.868435599778883</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/coronavirus-impact-on-the-hospitality-industry-5/</t>
+          <t>https://insights.blackcoffer.com/how-to-increase-social-media-engagement-for-marketers/</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>480</v>
+        <v>894</v>
       </c>
       <c r="D60" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E60" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.423728806377477</v>
+        <v>0.571428563265306</v>
       </c>
       <c r="G60" t="n">
-        <v>0.12291666641059</v>
+        <v>0.078299776198769</v>
       </c>
       <c r="H60" t="n">
-        <v>18.42553191489362</v>
+        <v>18.60227272727273</v>
       </c>
       <c r="I60" t="n">
-        <v>18.61702127659574</v>
+        <v>18.46590909090909</v>
       </c>
       <c r="J60" t="n">
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="K60" t="n">
-        <v>0.182448036951501</v>
+        <v>0.186316432498472</v>
       </c>
       <c r="L60" t="n">
-        <v>7.443191980738049</v>
+        <v>7.51543566390848</v>
       </c>
       <c r="M60" t="n">
-        <v>1.741339491916859</v>
+        <v>1.674404398289554</v>
       </c>
       <c r="N60" t="n">
         <v>5</v>
       </c>
       <c r="O60" t="n">
-        <v>5.002309468822171</v>
+        <v>4.880268784361637</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/lessons-from-the-past-some-key-learnings-relevant-to-the-coronavirus-crisis-4/</t>
+          <t>https://insights.blackcoffer.com/travel-and-tourism-outlook/</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>612</v>
+        <v>85</v>
       </c>
       <c r="D61" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E61" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.044444443950617</v>
+        <v>0.3333332962963</v>
       </c>
       <c r="G61" t="n">
-        <v>0.147058823289119</v>
+        <v>0.105882351695501</v>
       </c>
       <c r="H61" t="n">
-        <v>16.32876712328767</v>
+        <v>19</v>
       </c>
       <c r="I61" t="n">
-        <v>16.27397260273973</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="J61" t="n">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="K61" t="n">
-        <v>0.175335570469798</v>
+        <v>0.134502923976608</v>
       </c>
       <c r="L61" t="n">
-        <v>6.601641077502989</v>
+        <v>7.653801169590643</v>
       </c>
       <c r="M61" t="n">
-        <v>1.677013422818791</v>
+        <v>1.520467836257309</v>
       </c>
       <c r="N61" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>4.776845637583893</v>
+        <v>4.374269005847953</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/travel-and-tourism-outlook/</t>
+          <t>https://insights.blackcoffer.com/gaming-disorder-and-effects-of-gaming-on-health/</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>85</v>
+        <v>585</v>
       </c>
       <c r="D62" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3333332962963</v>
+        <v>-0.21052631301939</v>
       </c>
       <c r="G62" t="n">
-        <v>0.105882351695501</v>
+        <v>0.129914529692453</v>
       </c>
       <c r="H62" t="n">
-        <v>19</v>
+        <v>18.75862068965517</v>
       </c>
       <c r="I62" t="n">
-        <v>19.44444444444444</v>
+        <v>18.77586206896552</v>
       </c>
       <c r="J62" t="n">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="K62" t="n">
-        <v>0.134502923976608</v>
+        <v>0.167279411764705</v>
       </c>
       <c r="L62" t="n">
-        <v>7.653801169590643</v>
+        <v>7.570360040567952</v>
       </c>
       <c r="M62" t="n">
-        <v>1.520467836257309</v>
+        <v>1.629595588235294</v>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O62" t="n">
-        <v>4.374269005847953</v>
+        <v>4.773897058823529</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/estimating-the-impact-of-covid-19-on-the-world-of-work-3/</t>
+          <t>https://insights.blackcoffer.com/lessons-from-the-past-some-key-learnings-relevant-to-the-coronavirus-crisis-4/</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>544</v>
+        <v>612</v>
       </c>
       <c r="D63" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E63" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.3599999928</v>
+        <v>-0.044444443950617</v>
       </c>
       <c r="G63" t="n">
-        <v>0.09191176453692601</v>
+        <v>0.147058823289119</v>
       </c>
       <c r="H63" t="n">
-        <v>19.43478260869565</v>
+        <v>16.32876712328767</v>
       </c>
       <c r="I63" t="n">
-        <v>19.97826086956522</v>
+        <v>16.27397260273973</v>
       </c>
       <c r="J63" t="n">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="K63" t="n">
-        <v>0.225950782997762</v>
+        <v>0.175335570469798</v>
       </c>
       <c r="L63" t="n">
-        <v>7.864293356677367</v>
+        <v>6.601641077502989</v>
       </c>
       <c r="M63" t="n">
-        <v>1.796420581655481</v>
+        <v>1.677013422818791</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="O63" t="n">
-        <v>5.230425055928412</v>
+        <v>4.776845637583893</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/gaming-disorder-and-effects-of-gaming-on-health/</t>
+          <t>https://insights.blackcoffer.com/what-is-the-repercussion-of-the-environment-due-to-the-covid-19-pandemic-situation/</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>585</v>
+        <v>273</v>
       </c>
       <c r="D64" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E64" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.21052631301939</v>
+        <v>-0.555555534979424</v>
       </c>
       <c r="G64" t="n">
-        <v>0.129914529692453</v>
+        <v>0.09890109853882301</v>
       </c>
       <c r="H64" t="n">
-        <v>18.75862068965517</v>
+        <v>17.96153846153846</v>
       </c>
       <c r="I64" t="n">
-        <v>18.77586206896552</v>
+        <v>18.53846153846154</v>
       </c>
       <c r="J64" t="n">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="K64" t="n">
-        <v>0.167279411764705</v>
+        <v>0.179871520342612</v>
       </c>
       <c r="L64" t="n">
-        <v>7.570360040567952</v>
+        <v>7.256563992752429</v>
       </c>
       <c r="M64" t="n">
-        <v>1.629595588235294</v>
+        <v>1.715203426124197</v>
       </c>
       <c r="N64" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O64" t="n">
-        <v>4.773897058823529</v>
+        <v>5.08779443254818</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/what-is-the-repercussion-of-the-environment-due-to-the-covid-19-pandemic-situation/</t>
+          <t>https://insights.blackcoffer.com/estimating-the-impact-of-covid-19-on-the-world-of-work-2/</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>273</v>
+        <v>589</v>
       </c>
       <c r="D65" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E65" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.555555534979424</v>
+        <v>0.034482758026159</v>
       </c>
       <c r="G65" t="n">
-        <v>0.09890109853882301</v>
+        <v>0.098471986250472</v>
       </c>
       <c r="H65" t="n">
-        <v>17.96153846153846</v>
+        <v>30.11111111111111</v>
       </c>
       <c r="I65" t="n">
-        <v>18.53846153846154</v>
+        <v>30.25</v>
       </c>
       <c r="J65" t="n">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="K65" t="n">
-        <v>0.179871520342612</v>
+        <v>0.200184501845018</v>
       </c>
       <c r="L65" t="n">
-        <v>7.256563992752429</v>
+        <v>12.12451824518245</v>
       </c>
       <c r="M65" t="n">
-        <v>1.715203426124197</v>
+        <v>1.745387453874538</v>
       </c>
       <c r="N65" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O65" t="n">
-        <v>5.08779443254818</v>
+        <v>4.97140221402214</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/what-is-the-repercussion-of-the-environment-due-to-the-covid-19-pandemic-situation-2/</t>
+          <t>https://insights.blackcoffer.com/estimating-the-impact-of-covid-19-on-the-world-of-work-3/</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>636</v>
+        <v>544</v>
       </c>
       <c r="D66" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E66" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.310344824019025</v>
+        <v>-0.3599999928</v>
       </c>
       <c r="G66" t="n">
-        <v>0.136792452615106</v>
+        <v>0.09191176453692601</v>
       </c>
       <c r="H66" t="n">
-        <v>23</v>
+        <v>19.43478260869565</v>
       </c>
       <c r="I66" t="n">
-        <v>23.14583333333333</v>
+        <v>19.97826086956522</v>
       </c>
       <c r="J66" t="n">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="K66" t="n">
-        <v>0.230072463768115</v>
+        <v>0.225950782997762</v>
       </c>
       <c r="L66" t="n">
-        <v>9.292028985507248</v>
+        <v>7.864293356677367</v>
       </c>
       <c r="M66" t="n">
-        <v>1.828804347826087</v>
+        <v>1.796420581655481</v>
       </c>
       <c r="N66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O66" t="n">
-        <v>5.256340579710145</v>
+        <v>5.230425055928412</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-covid-19-pandemic-on-office-space-and-co-working-industries/</t>
+          <t>https://insights.blackcoffer.com/what-is-the-repercussion-of-the-environment-due-to-the-covid-19-pandemic-situation-2/</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>509</v>
+        <v>636</v>
       </c>
       <c r="D67" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E67" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.044776118734684</v>
+        <v>-0.310344824019025</v>
       </c>
       <c r="G67" t="n">
-        <v>0.131630648071452</v>
+        <v>0.136792452615106</v>
       </c>
       <c r="H67" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I67" t="n">
-        <v>28.86486486486486</v>
+        <v>23.14583333333333</v>
       </c>
       <c r="J67" t="n">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="K67" t="n">
-        <v>0.143522833178005</v>
+        <v>0.230072463768115</v>
       </c>
       <c r="L67" t="n">
-        <v>11.6574091332712</v>
+        <v>9.292028985507248</v>
       </c>
       <c r="M67" t="n">
-        <v>1.592730661696179</v>
+        <v>1.828804347826087</v>
       </c>
       <c r="N67" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O67" t="n">
-        <v>4.653308480894689</v>
+        <v>5.256340579710145</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/estimating-the-impact-of-covid-19-on-the-world-of-work-2/</t>
+          <t>https://insights.blackcoffer.com/how-covid-19-is-impacting-payment-preferences/</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>589</v>
+        <v>299</v>
       </c>
       <c r="D68" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E68" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>0.034482758026159</v>
+        <v>0.777777748971194</v>
       </c>
       <c r="G68" t="n">
-        <v>0.098471986250472</v>
+        <v>0.090301003042471</v>
       </c>
       <c r="H68" t="n">
-        <v>30.11111111111111</v>
+        <v>19.55555555555556</v>
       </c>
       <c r="I68" t="n">
-        <v>30.25</v>
+        <v>19.74074074074074</v>
       </c>
       <c r="J68" t="n">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="K68" t="n">
-        <v>0.200184501845018</v>
+        <v>0.162878787878787</v>
       </c>
       <c r="L68" t="n">
-        <v>12.12451824518245</v>
+        <v>7.887373737373739</v>
       </c>
       <c r="M68" t="n">
-        <v>1.745387453874538</v>
+        <v>1.68560606060606</v>
       </c>
       <c r="N68" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O68" t="n">
-        <v>4.97140221402214</v>
+        <v>4.753787878787879</v>
       </c>
     </row>
     <row r="69">
@@ -3844,198 +3844,198 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-covid-19-is-impacting-payment-preferences/</t>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19-pandemic-on-office-space-and-co-working-industries/</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>299</v>
+        <v>509</v>
       </c>
       <c r="D70" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F70" t="n">
-        <v>0.777777748971194</v>
+        <v>-0.044776118734684</v>
       </c>
       <c r="G70" t="n">
-        <v>0.090301003042471</v>
+        <v>0.131630648071452</v>
       </c>
       <c r="H70" t="n">
-        <v>19.55555555555556</v>
+        <v>29</v>
       </c>
       <c r="I70" t="n">
-        <v>19.74074074074074</v>
+        <v>28.86486486486486</v>
       </c>
       <c r="J70" t="n">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="K70" t="n">
-        <v>0.162878787878787</v>
+        <v>0.143522833178005</v>
       </c>
       <c r="L70" t="n">
-        <v>7.887373737373739</v>
+        <v>11.6574091332712</v>
       </c>
       <c r="M70" t="n">
-        <v>1.68560606060606</v>
+        <v>1.592730661696179</v>
       </c>
       <c r="N70" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O70" t="n">
-        <v>4.753787878787879</v>
+        <v>4.653308480894689</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-will-covid-19-affect-the-world-of-work-2/</t>
+          <t>https://insights.blackcoffer.com/coronavirus-impact-on-the-hospitality-industry-3/</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>496</v>
+        <v>435</v>
       </c>
       <c r="D71" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E71" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.222222219753086</v>
+        <v>-0.024390243307555</v>
       </c>
       <c r="G71" t="n">
-        <v>0.181451612537395</v>
+        <v>0.094252873346545</v>
       </c>
       <c r="H71" t="n">
-        <v>32.42857142857143</v>
+        <v>23.14705882352941</v>
       </c>
       <c r="I71" t="n">
-        <v>32.71428571428572</v>
+        <v>22.97058823529412</v>
       </c>
       <c r="J71" t="n">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="K71" t="n">
-        <v>0.204845814977973</v>
+        <v>0.191867852604828</v>
       </c>
       <c r="L71" t="n">
-        <v>13.05336689741976</v>
+        <v>9.335570670453697</v>
       </c>
       <c r="M71" t="n">
-        <v>1.787444933920704</v>
+        <v>1.728081321473951</v>
       </c>
       <c r="N71" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O71" t="n">
-        <v>5.177312775330397</v>
+        <v>4.963151207115629</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/lessons-from-the-past-some-key-learnings-relevant-to-the-coronavirus-crisis/</t>
+          <t>https://insights.blackcoffer.com/estimating-the-impact-of-covid-19-on-the-world-of-work/</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>321</v>
+        <v>730</v>
       </c>
       <c r="D72" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E72" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F72" t="n">
-        <v>0.152542370295892</v>
+        <v>0.056179774649665</v>
       </c>
       <c r="G72" t="n">
-        <v>0.183800622480371</v>
+        <v>0.121917808052167</v>
       </c>
       <c r="H72" t="n">
-        <v>23.83333333333333</v>
+        <v>20.86764705882353</v>
       </c>
       <c r="I72" t="n">
-        <v>23.63333333333333</v>
+        <v>20.85294117647059</v>
       </c>
       <c r="J72" t="n">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="K72" t="n">
-        <v>0.104895104895104</v>
+        <v>0.164904862579281</v>
       </c>
       <c r="L72" t="n">
-        <v>9.575291375291375</v>
+        <v>8.413020768561124</v>
       </c>
       <c r="M72" t="n">
-        <v>1.471328671328671</v>
+        <v>1.632135306553911</v>
       </c>
       <c r="N72" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="O72" t="n">
-        <v>4.172027972027972</v>
+        <v>4.72093023255814</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/covid-19-how-have-countries-been-responding/</t>
+          <t>https://insights.blackcoffer.com/lessons-from-the-past-some-key-learnings-relevant-to-the-coronavirus-crisis/</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>575</v>
+        <v>321</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E73" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.6170212634676321</v>
+        <v>0.152542370295892</v>
       </c>
       <c r="G73" t="n">
-        <v>0.08173913029262701</v>
+        <v>0.183800622480371</v>
       </c>
       <c r="H73" t="n">
-        <v>22.17777777777778</v>
+        <v>23.83333333333333</v>
       </c>
       <c r="I73" t="n">
-        <v>22.4</v>
+        <v>23.63333333333333</v>
       </c>
       <c r="J73" t="n">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="K73" t="n">
-        <v>0.185370741482965</v>
+        <v>0.104895104895104</v>
       </c>
       <c r="L73" t="n">
-        <v>8.945259407704297</v>
+        <v>9.575291375291375</v>
       </c>
       <c r="M73" t="n">
-        <v>1.726452905811623</v>
+        <v>1.471328671328671</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O73" t="n">
-        <v>5.177354709418838</v>
+        <v>4.172027972027972</v>
       </c>
     </row>
     <row r="74">
@@ -4089,198 +4089,198 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-will-covid-19-affect-the-world-of-work-3/</t>
+          <t>https://insights.blackcoffer.com/how-will-covid-19-affect-the-world-of-work-2/</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>583</v>
+        <v>496</v>
       </c>
       <c r="D75" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E75" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.238095235260771</v>
+        <v>-0.222222219753086</v>
       </c>
       <c r="G75" t="n">
-        <v>0.144082332514438</v>
+        <v>0.181451612537395</v>
       </c>
       <c r="H75" t="n">
-        <v>19.40384615384615</v>
+        <v>32.42857142857143</v>
       </c>
       <c r="I75" t="n">
-        <v>19.36538461538462</v>
+        <v>32.71428571428572</v>
       </c>
       <c r="J75" t="n">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="K75" t="n">
-        <v>0.202180376610505</v>
+        <v>0.204845814977973</v>
       </c>
       <c r="L75" t="n">
-        <v>7.842410612182665</v>
+        <v>13.05336689741976</v>
       </c>
       <c r="M75" t="n">
-        <v>1.786917740336967</v>
+        <v>1.787444933920704</v>
       </c>
       <c r="N75" t="n">
         <v>3</v>
       </c>
       <c r="O75" t="n">
-        <v>5.266600594648167</v>
+        <v>5.177312775330397</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/estimating-the-impact-of-covid-19-on-the-world-of-work/</t>
+          <t>https://insights.blackcoffer.com/how-will-covid-19-affect-the-world-of-work-3/</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>730</v>
+        <v>583</v>
       </c>
       <c r="D76" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E76" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F76" t="n">
-        <v>0.056179774649665</v>
+        <v>-0.238095235260771</v>
       </c>
       <c r="G76" t="n">
-        <v>0.121917808052167</v>
+        <v>0.144082332514438</v>
       </c>
       <c r="H76" t="n">
-        <v>20.86764705882353</v>
+        <v>19.40384615384615</v>
       </c>
       <c r="I76" t="n">
-        <v>20.85294117647059</v>
+        <v>19.36538461538462</v>
       </c>
       <c r="J76" t="n">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="K76" t="n">
-        <v>0.164904862579281</v>
+        <v>0.202180376610505</v>
       </c>
       <c r="L76" t="n">
-        <v>8.413020768561124</v>
+        <v>7.842410612182665</v>
       </c>
       <c r="M76" t="n">
-        <v>1.632135306553911</v>
+        <v>1.786917740336967</v>
       </c>
       <c r="N76" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O76" t="n">
-        <v>4.72093023255814</v>
+        <v>5.266600594648167</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/covid-19-how-have-countries-been-responding-2/</t>
+          <t>https://insights.blackcoffer.com/how-will-covid-19-affect-the-world-of-work-4/</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>854</v>
+        <v>448</v>
       </c>
       <c r="D77" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E77" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.199999996923077</v>
+        <v>0.05660377251690901</v>
       </c>
       <c r="G77" t="n">
-        <v>0.07611241208886101</v>
+        <v>0.1183035711645</v>
       </c>
       <c r="H77" t="n">
-        <v>25.28070175438597</v>
+        <v>85.8</v>
       </c>
       <c r="I77" t="n">
-        <v>26.19298245614035</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="J77" t="n">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="K77" t="n">
-        <v>0.205412907702984</v>
+        <v>0.09440559440559401</v>
       </c>
       <c r="L77" t="n">
-        <v>10.19444586483558</v>
+        <v>34.35776223776224</v>
       </c>
       <c r="M77" t="n">
-        <v>1.78001387925052</v>
+        <v>1.495337995337995</v>
       </c>
       <c r="N77" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="O77" t="n">
-        <v>5.170020818875781</v>
+        <v>4.251748251748252</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-will-covid-19-affect-the-world-of-work-4/</t>
+          <t>https://insights.blackcoffer.com/covid-19-how-have-countries-been-responding/</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>448</v>
+        <v>575</v>
       </c>
       <c r="D78" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E78" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F78" t="n">
-        <v>0.05660377251690901</v>
+        <v>-0.6170212634676321</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1183035711645</v>
+        <v>0.08173913029262701</v>
       </c>
       <c r="H78" t="n">
-        <v>85.8</v>
+        <v>22.17777777777778</v>
       </c>
       <c r="I78" t="n">
-        <v>86.90000000000001</v>
+        <v>22.4</v>
       </c>
       <c r="J78" t="n">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="K78" t="n">
-        <v>0.09440559440559401</v>
+        <v>0.185370741482965</v>
       </c>
       <c r="L78" t="n">
-        <v>34.35776223776224</v>
+        <v>8.945259407704297</v>
       </c>
       <c r="M78" t="n">
-        <v>1.495337995337995</v>
+        <v>1.726452905811623</v>
       </c>
       <c r="N78" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>4.251748251748252</v>
+        <v>5.177354709418838</v>
       </c>
     </row>
     <row r="79">
@@ -4334,786 +4334,786 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/lessons-from-the-past-some-key-learnings-relevant-to-the-coronavirus-crisis-3/</t>
+          <t>https://insights.blackcoffer.com/covid-19-how-have-countries-been-responding-2/</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>854</v>
       </c>
       <c r="D80" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E80" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.08695652079395001</v>
+        <v>-0.199999996923077</v>
       </c>
       <c r="G80" t="n">
-        <v>0.163701067324375</v>
+        <v>0.07611241208886101</v>
       </c>
       <c r="H80" t="n">
-        <v>17.02985074626866</v>
+        <v>25.28070175438597</v>
       </c>
       <c r="I80" t="n">
-        <v>17.17910447761194</v>
+        <v>26.19298245614035</v>
       </c>
       <c r="J80" t="n">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="K80" t="n">
-        <v>0.130587204206836</v>
+        <v>0.205412907702984</v>
       </c>
       <c r="L80" t="n">
-        <v>6.864175180190198</v>
+        <v>10.19444586483558</v>
       </c>
       <c r="M80" t="n">
-        <v>1.593339176161262</v>
+        <v>1.78001387925052</v>
       </c>
       <c r="N80" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O80" t="n">
-        <v>4.510078878177038</v>
+        <v>5.170020818875781</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/coronavirus-impact-on-the-hospitality-industry-4/</t>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19coronavirus-on-the-indian-economy-2/</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>178</v>
+        <v>938</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E81" t="n">
+        <v>69</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.243243241051862</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.118336886867444</v>
+      </c>
+      <c r="H81" t="n">
+        <v>20.69135802469136</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20.76543209876543</v>
+      </c>
+      <c r="J81" t="n">
+        <v>304</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.181384248210023</v>
+      </c>
+      <c r="L81" t="n">
+        <v>8.349096909160552</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.704057279236277</v>
+      </c>
+      <c r="N81" t="n">
         <v>14</v>
       </c>
-      <c r="F81" t="n">
-        <v>-0.21739129489603</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.129213482420149</v>
-      </c>
-      <c r="H81" t="n">
-        <v>21.57142857142857</v>
-      </c>
-      <c r="I81" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>78</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.258278145695364</v>
-      </c>
-      <c r="L81" t="n">
-        <v>8.731882686849575</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.93046357615894</v>
-      </c>
-      <c r="N81" t="n">
-        <v>1</v>
-      </c>
       <c r="O81" t="n">
-        <v>5.543046357615894</v>
+        <v>4.940334128878281</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/coronavirus-impact-on-the-hospitality-industry-3/</t>
+          <t>https://insights.blackcoffer.com/coronavirus-impact-on-the-hospitality-industry-4/</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>435</v>
+        <v>178</v>
       </c>
       <c r="D82" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E82" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.024390243307555</v>
+        <v>-0.21739129489603</v>
       </c>
       <c r="G82" t="n">
-        <v>0.094252873346545</v>
+        <v>0.129213482420149</v>
       </c>
       <c r="H82" t="n">
-        <v>23.14705882352941</v>
+        <v>21.57142857142857</v>
       </c>
       <c r="I82" t="n">
-        <v>22.97058823529412</v>
+        <v>22.5</v>
       </c>
       <c r="J82" t="n">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="K82" t="n">
-        <v>0.191867852604828</v>
+        <v>0.258278145695364</v>
       </c>
       <c r="L82" t="n">
-        <v>9.335570670453697</v>
+        <v>8.731882686849575</v>
       </c>
       <c r="M82" t="n">
-        <v>1.728081321473951</v>
+        <v>1.93046357615894</v>
       </c>
       <c r="N82" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>4.963151207115629</v>
+        <v>5.543046357615894</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/why-scams-like-nirav-modi-happen-with-indian-banks/</t>
+          <t>https://insights.blackcoffer.com/lessons-from-the-past-some-key-learnings-relevant-to-the-coronavirus-crisis-3/</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1263</v>
+        <v>562</v>
       </c>
       <c r="D83" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E83" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.304347823881537</v>
+        <v>-0.08695652079395001</v>
       </c>
       <c r="G83" t="n">
-        <v>0.109263657870733</v>
+        <v>0.163701067324375</v>
       </c>
       <c r="H83" t="n">
-        <v>24.89285714285714</v>
+        <v>17.02985074626866</v>
       </c>
       <c r="I83" t="n">
-        <v>25.21428571428572</v>
+        <v>17.17910447761194</v>
       </c>
       <c r="J83" t="n">
-        <v>423</v>
+        <v>149</v>
       </c>
       <c r="K83" t="n">
-        <v>0.202295552367288</v>
+        <v>0.130587204206836</v>
       </c>
       <c r="L83" t="n">
-        <v>10.03806107808977</v>
+        <v>6.864175180190198</v>
       </c>
       <c r="M83" t="n">
-        <v>1.743185078909612</v>
+        <v>1.593339176161262</v>
       </c>
       <c r="N83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O83" t="n">
-        <v>5.208990913438546</v>
+        <v>4.510078878177038</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-covid-19-on-the-global-economy/</t>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19-coronavirus-on-the-indian-economy-3/</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>738</v>
+        <v>496</v>
       </c>
       <c r="D84" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E84" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.08333333263888801</v>
+        <v>-0.212121208907254</v>
       </c>
       <c r="G84" t="n">
-        <v>0.162601625795932</v>
+        <v>0.133064515860757</v>
       </c>
       <c r="H84" t="n">
-        <v>25.33333333333333</v>
+        <v>21.35714285714286</v>
       </c>
       <c r="I84" t="n">
-        <v>25.25396825396825</v>
+        <v>21.88095238095238</v>
       </c>
       <c r="J84" t="n">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="K84" t="n">
-        <v>0.124686716791979</v>
+        <v>0.183946488294314</v>
       </c>
       <c r="L84" t="n">
-        <v>10.18320802005013</v>
+        <v>8.61643573817487</v>
       </c>
       <c r="M84" t="n">
-        <v>1.524436090225563</v>
+        <v>1.693422519509476</v>
       </c>
       <c r="N84" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="O84" t="n">
-        <v>4.44110275689223</v>
+        <v>4.925306577480491</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-covid-19coronavirus-on-the-indian-economy-2/</t>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19-on-the-global-economy/</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>938</v>
+        <v>738</v>
       </c>
       <c r="D85" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E85" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.243243241051862</v>
+        <v>-0.08333333263888801</v>
       </c>
       <c r="G85" t="n">
-        <v>0.118336886867444</v>
+        <v>0.162601625795932</v>
       </c>
       <c r="H85" t="n">
-        <v>20.69135802469136</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I85" t="n">
-        <v>20.76543209876543</v>
+        <v>25.25396825396825</v>
       </c>
       <c r="J85" t="n">
-        <v>304</v>
+        <v>199</v>
       </c>
       <c r="K85" t="n">
-        <v>0.181384248210023</v>
+        <v>0.124686716791979</v>
       </c>
       <c r="L85" t="n">
-        <v>8.349096909160552</v>
+        <v>10.18320802005013</v>
       </c>
       <c r="M85" t="n">
-        <v>1.704057279236277</v>
+        <v>1.524436090225563</v>
       </c>
       <c r="N85" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="O85" t="n">
-        <v>4.940334128878281</v>
+        <v>4.44110275689223</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-covid-19-on-the-global-economy-2/</t>
+          <t>https://insights.blackcoffer.com/why-scams-like-nirav-modi-happen-with-indian-banks/</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>992</v>
+        <v>1263</v>
       </c>
       <c r="D86" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E86" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.18881118749083</v>
+        <v>-0.304347823881537</v>
       </c>
       <c r="G86" t="n">
-        <v>0.144153225661135</v>
+        <v>0.109263657870733</v>
       </c>
       <c r="H86" t="n">
-        <v>23.87837837837838</v>
+        <v>24.89285714285714</v>
       </c>
       <c r="I86" t="n">
-        <v>24.02702702702703</v>
+        <v>25.21428571428572</v>
       </c>
       <c r="J86" t="n">
-        <v>319</v>
+        <v>423</v>
       </c>
       <c r="K86" t="n">
-        <v>0.180531975099037</v>
+        <v>0.202295552367288</v>
       </c>
       <c r="L86" t="n">
-        <v>9.623564141390966</v>
+        <v>10.03806107808977</v>
       </c>
       <c r="M86" t="n">
-        <v>1.710243350311262</v>
+        <v>1.743185078909612</v>
       </c>
       <c r="N86" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="O86" t="n">
-        <v>4.995472552348613</v>
+        <v>5.208990913438546</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-covid-19-coronavirus-on-the-indian-economy-3/</t>
+          <t>https://insights.blackcoffer.com/how-prepared-is-india-to-tackle-a-possible-covid-19-outbreak/</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="D87" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E87" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.212121208907254</v>
+        <v>-0.116279067063277</v>
       </c>
       <c r="G87" t="n">
-        <v>0.133064515860757</v>
+        <v>0.09619686779374301</v>
       </c>
       <c r="H87" t="n">
-        <v>21.35714285714286</v>
+        <v>25.8125</v>
       </c>
       <c r="I87" t="n">
-        <v>21.88095238095238</v>
+        <v>25.9375</v>
       </c>
       <c r="J87" t="n">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K87" t="n">
-        <v>0.183946488294314</v>
+        <v>0.184019370460048</v>
       </c>
       <c r="L87" t="n">
-        <v>8.61643573817487</v>
+        <v>10.39860774818402</v>
       </c>
       <c r="M87" t="n">
-        <v>1.693422519509476</v>
+        <v>1.731234866828087</v>
       </c>
       <c r="N87" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O87" t="n">
-        <v>4.925306577480491</v>
+        <v>5.041162227602905</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/should-celebrities-be-allowed-to-join-politics/</t>
+          <t>https://insights.blackcoffer.com/coronavirus-impact-on-the-hospitality-industry/</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>956</v>
+        <v>256</v>
       </c>
       <c r="D88" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.526315782548476</v>
+        <v>0.06666666222222201</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07949790786663401</v>
+        <v>0.058593749771118</v>
       </c>
       <c r="H88" t="n">
-        <v>28.34920634920635</v>
+        <v>21.8</v>
       </c>
       <c r="I88" t="n">
-        <v>28.44444444444444</v>
+        <v>22.6</v>
       </c>
       <c r="J88" t="n">
-        <v>399</v>
+        <v>91</v>
       </c>
       <c r="K88" t="n">
-        <v>0.223404255319148</v>
+        <v>0.208715596330275</v>
       </c>
       <c r="L88" t="n">
-        <v>11.4290442418102</v>
+        <v>8.803486238532109</v>
       </c>
       <c r="M88" t="n">
-        <v>1.814109742441209</v>
+        <v>1.837155963302752</v>
       </c>
       <c r="N88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>5.183090705487122</v>
+        <v>5.238532110091743</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-prepared-is-india-to-tackle-a-possible-covid-19-outbreak/</t>
+          <t>https://insights.blackcoffer.com/should-celebrities-be-allowed-to-join-politics/</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>447</v>
+        <v>956</v>
       </c>
       <c r="D89" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E89" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.116279067063277</v>
+        <v>0.526315782548476</v>
       </c>
       <c r="G89" t="n">
-        <v>0.09619686779374301</v>
+        <v>0.07949790786663401</v>
       </c>
       <c r="H89" t="n">
-        <v>25.8125</v>
+        <v>28.34920634920635</v>
       </c>
       <c r="I89" t="n">
-        <v>25.9375</v>
+        <v>28.44444444444444</v>
       </c>
       <c r="J89" t="n">
-        <v>152</v>
+        <v>399</v>
       </c>
       <c r="K89" t="n">
-        <v>0.184019370460048</v>
+        <v>0.223404255319148</v>
       </c>
       <c r="L89" t="n">
-        <v>10.39860774818402</v>
+        <v>11.4290442418102</v>
       </c>
       <c r="M89" t="n">
-        <v>1.731234866828087</v>
+        <v>1.814109742441209</v>
       </c>
       <c r="N89" t="n">
         <v>3</v>
       </c>
       <c r="O89" t="n">
-        <v>5.041162227602905</v>
+        <v>5.183090705487122</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/controversy-as-a-marketing-strategy/</t>
+          <t>https://insights.blackcoffer.com/how-will-covid-19-affect-the-world-of-work/</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>149</v>
+        <v>700</v>
       </c>
       <c r="D90" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E90" t="n">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3333333194444451</v>
+        <v>-0.3613445347786171</v>
       </c>
       <c r="G90" t="n">
-        <v>0.161073824422323</v>
+        <v>0.169999999757142</v>
       </c>
       <c r="H90" t="n">
-        <v>19.2</v>
+        <v>23.94230769230769</v>
       </c>
       <c r="I90" t="n">
-        <v>19.06666666666667</v>
+        <v>24.17307692307692</v>
       </c>
       <c r="J90" t="n">
-        <v>58</v>
+        <v>260</v>
       </c>
       <c r="K90" t="n">
-        <v>0.201388888888888</v>
+        <v>0.208835341365461</v>
       </c>
       <c r="L90" t="n">
-        <v>7.760555555555555</v>
+        <v>9.660457213469263</v>
       </c>
       <c r="M90" t="n">
-        <v>1.642361111111111</v>
+        <v>1.799196787148594</v>
       </c>
       <c r="N90" t="n">
         <v>4</v>
       </c>
       <c r="O90" t="n">
-        <v>4.923611111111111</v>
+        <v>5.134136546184739</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/coronavirus-impact-on-the-hospitality-industry/</t>
+          <t>https://insights.blackcoffer.com/marketing-drives-results-with-a-focus-on-problems/</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>256</v>
+        <v>739</v>
       </c>
       <c r="D91" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F91" t="n">
-        <v>0.06666666222222201</v>
+        <v>0.176470584775086</v>
       </c>
       <c r="G91" t="n">
-        <v>0.058593749771118</v>
+        <v>0.06901217852637001</v>
       </c>
       <c r="H91" t="n">
-        <v>21.8</v>
+        <v>22.66101694915254</v>
       </c>
       <c r="I91" t="n">
-        <v>22.6</v>
+        <v>22.5593220338983</v>
       </c>
       <c r="J91" t="n">
-        <v>91</v>
+        <v>261</v>
       </c>
       <c r="K91" t="n">
-        <v>0.208715596330275</v>
+        <v>0.195213163799551</v>
       </c>
       <c r="L91" t="n">
-        <v>8.803486238532109</v>
+        <v>9.142492045180838</v>
       </c>
       <c r="M91" t="n">
-        <v>1.837155963302752</v>
+        <v>1.756918474195961</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O91" t="n">
-        <v>5.238532110091743</v>
+        <v>5.110695587135377</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/coronavirus-impact-on-energy-markets/</t>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19-on-the-global-economy-2/</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>848</v>
+        <v>992</v>
       </c>
       <c r="D92" t="n">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E92" t="n">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.386666661511111</v>
+        <v>-0.18881118749083</v>
       </c>
       <c r="G92" t="n">
-        <v>0.088443396122118</v>
+        <v>0.144153225661135</v>
       </c>
       <c r="H92" t="n">
-        <v>29.29166666666667</v>
+        <v>23.87837837837838</v>
       </c>
       <c r="I92" t="n">
-        <v>29.47916666666667</v>
+        <v>24.02702702702703</v>
       </c>
       <c r="J92" t="n">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="K92" t="n">
-        <v>0.199146514935988</v>
+        <v>0.180531975099037</v>
       </c>
       <c r="L92" t="n">
-        <v>11.79632527264106</v>
+        <v>9.623564141390966</v>
       </c>
       <c r="M92" t="n">
-        <v>1.773826458036984</v>
+        <v>1.710243350311262</v>
       </c>
       <c r="N92" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O92" t="n">
-        <v>5.135846372688478</v>
+        <v>4.995472552348613</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/what-are-the-key-policies-that-will-mitigate-the-impacts-of-covid-19-on-the-world-of-work/</t>
+          <t>https://insights.blackcoffer.com/controversy-as-a-marketing-strategy/</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>967</v>
+        <v>149</v>
       </c>
       <c r="D93" t="n">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="E93" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F93" t="n">
-        <v>0.492063488158226</v>
+        <v>-0.3333333194444451</v>
       </c>
       <c r="G93" t="n">
-        <v>0.130299896452637</v>
+        <v>0.161073824422323</v>
       </c>
       <c r="H93" t="n">
-        <v>23.97101449275362</v>
+        <v>19.2</v>
       </c>
       <c r="I93" t="n">
-        <v>23.79710144927536</v>
+        <v>19.06666666666667</v>
       </c>
       <c r="J93" t="n">
-        <v>379</v>
+        <v>58</v>
       </c>
       <c r="K93" t="n">
-        <v>0.229141475211608</v>
+        <v>0.201388888888888</v>
       </c>
       <c r="L93" t="n">
-        <v>9.680062387186094</v>
+        <v>7.760555555555555</v>
       </c>
       <c r="M93" t="n">
-        <v>1.818621523579202</v>
+        <v>1.642361111111111</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O93" t="n">
-        <v>5.235792019347038</v>
+        <v>4.923611111111111</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/how-will-covid-19-affect-the-world-of-work/</t>
+          <t>https://insights.blackcoffer.com/coronavirus-impact-on-energy-markets/</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>700</v>
+        <v>848</v>
       </c>
       <c r="D94" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E94" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3613445347786171</v>
+        <v>-0.386666661511111</v>
       </c>
       <c r="G94" t="n">
-        <v>0.169999999757142</v>
+        <v>0.088443396122118</v>
       </c>
       <c r="H94" t="n">
-        <v>23.94230769230769</v>
+        <v>29.29166666666667</v>
       </c>
       <c r="I94" t="n">
-        <v>24.17307692307692</v>
+        <v>29.47916666666667</v>
       </c>
       <c r="J94" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="K94" t="n">
-        <v>0.208835341365461</v>
+        <v>0.199146514935988</v>
       </c>
       <c r="L94" t="n">
-        <v>9.660457213469263</v>
+        <v>11.79632527264106</v>
       </c>
       <c r="M94" t="n">
-        <v>1.799196787148594</v>
+        <v>1.773826458036984</v>
       </c>
       <c r="N94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O94" t="n">
-        <v>5.134136546184739</v>
+        <v>5.135846372688478</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/marketing-drives-results-with-a-focus-on-problems/</t>
+          <t>https://insights.blackcoffer.com/what-are-the-key-policies-that-will-mitigate-the-impacts-of-covid-19-on-the-world-of-work/</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>739</v>
+        <v>967</v>
       </c>
       <c r="D95" t="n">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E95" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F95" t="n">
-        <v>0.176470584775086</v>
+        <v>0.492063488158226</v>
       </c>
       <c r="G95" t="n">
-        <v>0.06901217852637001</v>
+        <v>0.130299896452637</v>
       </c>
       <c r="H95" t="n">
-        <v>22.66101694915254</v>
+        <v>23.97101449275362</v>
       </c>
       <c r="I95" t="n">
-        <v>22.5593220338983</v>
+        <v>23.79710144927536</v>
       </c>
       <c r="J95" t="n">
-        <v>261</v>
+        <v>379</v>
       </c>
       <c r="K95" t="n">
-        <v>0.195213163799551</v>
+        <v>0.229141475211608</v>
       </c>
       <c r="L95" t="n">
-        <v>9.142492045180838</v>
+        <v>9.680062387186094</v>
       </c>
       <c r="M95" t="n">
-        <v>1.756918474195961</v>
+        <v>1.818621523579202</v>
       </c>
       <c r="N95" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>5.110695587135377</v>
+        <v>5.235792019347038</v>
       </c>
     </row>
     <row r="96">
@@ -5167,786 +5167,786 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/coronavirus-disease-covid-19-effect-the-impact-and-role-of-mass-media-during-the-pandemic/</t>
+          <t>https://insights.blackcoffer.com/why-is-there-a-severe-immunological-and-inflammatory-explosion-in-those-affected-by-sarms-covid-19/</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D97" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.111111104938271</v>
+        <v>-0.866666608888892</v>
       </c>
       <c r="G97" t="n">
-        <v>0.098360655200215</v>
+        <v>0.08287292771893401</v>
       </c>
       <c r="H97" t="n">
-        <v>22.14285714285714</v>
+        <v>19.5</v>
       </c>
       <c r="I97" t="n">
-        <v>22.14285714285714</v>
+        <v>19.45</v>
       </c>
       <c r="J97" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K97" t="n">
-        <v>0.225806451612903</v>
+        <v>0.184615384615384</v>
       </c>
       <c r="L97" t="n">
-        <v>8.947465437788019</v>
+        <v>7.873846153846154</v>
       </c>
       <c r="M97" t="n">
-        <v>1.848387096774193</v>
+        <v>1.684615384615384</v>
       </c>
       <c r="N97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O97" t="n">
-        <v>5.332258064516129</v>
+        <v>4.712820512820513</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/what-do-you-think-is-the-lesson-or-lessons-to-be-learned-with-covid-19/</t>
+          <t>https://insights.blackcoffer.com/coronavirus-disease-covid-19-effect-the-impact-and-role-of-mass-media-during-the-pandemic/</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.249999968750003</v>
+        <v>-0.111111104938271</v>
       </c>
       <c r="G98" t="n">
-        <v>0.108108106647187</v>
+        <v>0.098360655200215</v>
       </c>
       <c r="H98" t="n">
-        <v>25.2</v>
+        <v>22.14285714285714</v>
       </c>
       <c r="I98" t="n">
-        <v>25.2</v>
+        <v>22.14285714285714</v>
       </c>
       <c r="J98" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K98" t="n">
-        <v>0.198412698412698</v>
+        <v>0.225806451612903</v>
       </c>
       <c r="L98" t="n">
-        <v>10.15936507936508</v>
+        <v>8.947465437788019</v>
       </c>
       <c r="M98" t="n">
-        <v>1.682539682539682</v>
+        <v>1.848387096774193</v>
       </c>
       <c r="N98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O98" t="n">
-        <v>4.841269841269841</v>
+        <v>5.332258064516129</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/should-people-wear-fabric-gloves-seeking-evidence-regarding-the-differential-transfer-of-covid-19-or-coronaviruses-generally-between-surfaces/</t>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19-coronavirus-on-the-indian-economy-2/</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F99" t="n">
-        <v>0.222222209876543</v>
+        <v>-0.3548386982310091</v>
       </c>
       <c r="G99" t="n">
-        <v>0.107142856505102</v>
+        <v>0.128630704860453</v>
       </c>
       <c r="H99" t="n">
-        <v>23</v>
+        <v>30.46666666666667</v>
       </c>
       <c r="I99" t="n">
-        <v>22.64285714285714</v>
+        <v>30.73333333333333</v>
       </c>
       <c r="J99" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="K99" t="n">
-        <v>0.12111801242236</v>
+        <v>0.159737417943107</v>
       </c>
       <c r="L99" t="n">
-        <v>9.248447204968945</v>
+        <v>12.25056163384391</v>
       </c>
       <c r="M99" t="n">
-        <v>1.531055900621118</v>
+        <v>1.62144420131291</v>
       </c>
       <c r="N99" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O99" t="n">
-        <v>4.409937888198757</v>
+        <v>4.765864332603939</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/why-is-there-a-severe-immunological-and-inflammatory-explosion-in-those-affected-by-sarms-covid-19/</t>
+          <t>https://insights.blackcoffer.com/should-people-wear-fabric-gloves-seeking-evidence-regarding-the-differential-transfer-of-covid-19-or-coronaviruses-generally-between-surfaces/</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E100" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.866666608888892</v>
+        <v>0.222222209876543</v>
       </c>
       <c r="G100" t="n">
-        <v>0.08287292771893401</v>
+        <v>0.107142856505102</v>
       </c>
       <c r="H100" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="I100" t="n">
-        <v>19.45</v>
+        <v>22.64285714285714</v>
       </c>
       <c r="J100" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="K100" t="n">
-        <v>0.184615384615384</v>
+        <v>0.12111801242236</v>
       </c>
       <c r="L100" t="n">
-        <v>7.873846153846154</v>
+        <v>9.248447204968945</v>
       </c>
       <c r="M100" t="n">
-        <v>1.684615384615384</v>
+        <v>1.531055900621118</v>
       </c>
       <c r="N100" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O100" t="n">
-        <v>4.712820512820513</v>
+        <v>4.409937888198757</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-covid-19-coronavirus-on-the-indian-economy/</t>
+          <t>https://insights.blackcoffer.com/coronavirus-the-unexpected-challenge-for-the-european-union/</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>505</v>
+        <v>130</v>
       </c>
       <c r="D101" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E101" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.4166666608796291</v>
+        <v>-0.249999984375</v>
       </c>
       <c r="G101" t="n">
-        <v>0.142574257143417</v>
+        <v>0.123076922130177</v>
       </c>
       <c r="H101" t="n">
-        <v>23.60526315789474</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="I101" t="n">
-        <v>24.36842105263158</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="J101" t="n">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="K101" t="n">
-        <v>0.175027870680044</v>
+        <v>0.212</v>
       </c>
       <c r="L101" t="n">
-        <v>9.512116411429913</v>
+        <v>7.227657142857144</v>
       </c>
       <c r="M101" t="n">
-        <v>1.721293199554069</v>
+        <v>1.744</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O101" t="n">
-        <v>5.030100334448161</v>
+        <v>4.956</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/coronavirus-the-unexpected-challenge-for-the-european-union/</t>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19coronavirus-on-the-indian-economy/</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>130</v>
+        <v>969</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E102" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.249999984375</v>
+        <v>-0.180327867374361</v>
       </c>
       <c r="G102" t="n">
-        <v>0.123076922130177</v>
+        <v>0.125902992646126</v>
       </c>
       <c r="H102" t="n">
-        <v>17.85714285714286</v>
+        <v>25.07142857142857</v>
       </c>
       <c r="I102" t="n">
-        <v>17.85714285714286</v>
+        <v>25.44285714285714</v>
       </c>
       <c r="J102" t="n">
-        <v>53</v>
+        <v>360</v>
       </c>
       <c r="K102" t="n">
-        <v>0.212</v>
+        <v>0.205128205128205</v>
       </c>
       <c r="L102" t="n">
-        <v>7.227657142857144</v>
+        <v>10.11062271062271</v>
       </c>
       <c r="M102" t="n">
-        <v>1.744</v>
+        <v>1.777777777777777</v>
       </c>
       <c r="N102" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>4.956</v>
+        <v>5.087179487179487</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-covid-19-coronavirus-on-the-global-economy/</t>
+          <t>https://insights.blackcoffer.com/industrial-revolution-4-0-pros-and-cons/</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.6774193329864731</v>
+        <v>0.5555554938271671</v>
       </c>
       <c r="G103" t="n">
-        <v>0.093939393654729</v>
+        <v>0.102272726110537</v>
       </c>
       <c r="H103" t="n">
-        <v>17.67647058823529</v>
+        <v>23</v>
       </c>
       <c r="I103" t="n">
-        <v>17.76470588235294</v>
+        <v>25</v>
       </c>
       <c r="J103" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K103" t="n">
-        <v>0.183028286189683</v>
+        <v>0.289855072463768</v>
       </c>
       <c r="L103" t="n">
-        <v>7.143799549769992</v>
+        <v>9.315942028985509</v>
       </c>
       <c r="M103" t="n">
-        <v>1.772046589018302</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="N103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>5.038269550748752</v>
+        <v>5.434782608695652</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-covid-19-coronavirus-on-the-indian-economy-2/</t>
+          <t>https://insights.blackcoffer.com/blockchain-in-fintech/</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>241</v>
+        <v>390</v>
       </c>
       <c r="D104" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E104" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.3548386982310091</v>
+        <v>0.185185178326474</v>
       </c>
       <c r="G104" t="n">
-        <v>0.128630704860453</v>
+        <v>0.06923076905325401</v>
       </c>
       <c r="H104" t="n">
-        <v>30.46666666666667</v>
+        <v>22</v>
       </c>
       <c r="I104" t="n">
-        <v>30.73333333333333</v>
+        <v>21.93939393939394</v>
       </c>
       <c r="J104" t="n">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K104" t="n">
-        <v>0.159737417943107</v>
+        <v>0.181818181818181</v>
       </c>
       <c r="L104" t="n">
-        <v>12.25056163384391</v>
+        <v>8.872727272727273</v>
       </c>
       <c r="M104" t="n">
-        <v>1.62144420131291</v>
+        <v>1.730027548209366</v>
       </c>
       <c r="N104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O104" t="n">
-        <v>4.765864332603939</v>
+        <v>5.141873278236915</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/blockchain-in-fintech/</t>
+          <t>https://insights.blackcoffer.com/the-future-of-investing/</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>390</v>
+        <v>613</v>
       </c>
       <c r="D105" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="n">
-        <v>0.185185178326474</v>
+        <v>0.538461528106509</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06923076905325401</v>
+        <v>0.084828711117734</v>
       </c>
       <c r="H105" t="n">
-        <v>22</v>
+        <v>22.25</v>
       </c>
       <c r="I105" t="n">
-        <v>21.93939393939394</v>
+        <v>22.4375</v>
       </c>
       <c r="J105" t="n">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="K105" t="n">
-        <v>0.181818181818181</v>
+        <v>0.213483146067415</v>
       </c>
       <c r="L105" t="n">
-        <v>8.872727272727273</v>
+        <v>8.985393258426965</v>
       </c>
       <c r="M105" t="n">
-        <v>1.730027548209366</v>
+        <v>1.797752808988764</v>
       </c>
       <c r="N105" t="n">
         <v>2</v>
       </c>
       <c r="O105" t="n">
-        <v>5.141873278236915</v>
+        <v>5.164794007490637</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/blockchain-for-payments/</t>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19-coronavirus-on-the-indian-economy/</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>505</v>
       </c>
       <c r="D106" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E106" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F106" t="n">
-        <v>0.037037036351165</v>
+        <v>-0.4166666608796291</v>
       </c>
       <c r="G106" t="n">
-        <v>0.106930692857562</v>
+        <v>0.142574257143417</v>
       </c>
       <c r="H106" t="n">
-        <v>18.31914893617021</v>
+        <v>23.60526315789474</v>
       </c>
       <c r="I106" t="n">
-        <v>18.31914893617021</v>
+        <v>24.36842105263158</v>
       </c>
       <c r="J106" t="n">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="K106" t="n">
-        <v>0.226480836236933</v>
+        <v>0.175027870680044</v>
       </c>
       <c r="L106" t="n">
-        <v>7.418251908962858</v>
+        <v>9.512116411429913</v>
       </c>
       <c r="M106" t="n">
-        <v>1.815331010452961</v>
+        <v>1.721293199554069</v>
       </c>
       <c r="N106" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>5.362369337979094</v>
+        <v>5.030100334448161</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-covid-19coronavirus-on-the-indian-economy/</t>
+          <t>https://insights.blackcoffer.com/what-do-you-think-is-the-lesson-or-lessons-to-be-learned-with-covid-19/</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>969</v>
+        <v>74</v>
       </c>
       <c r="D107" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E107" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.180327867374361</v>
+        <v>-0.249999968750003</v>
       </c>
       <c r="G107" t="n">
-        <v>0.125902992646126</v>
+        <v>0.108108106647187</v>
       </c>
       <c r="H107" t="n">
-        <v>25.07142857142857</v>
+        <v>25.2</v>
       </c>
       <c r="I107" t="n">
-        <v>25.44285714285714</v>
+        <v>25.2</v>
       </c>
       <c r="J107" t="n">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="K107" t="n">
-        <v>0.205128205128205</v>
+        <v>0.198412698412698</v>
       </c>
       <c r="L107" t="n">
-        <v>10.11062271062271</v>
+        <v>10.15936507936508</v>
       </c>
       <c r="M107" t="n">
-        <v>1.777777777777777</v>
+        <v>1.682539682539682</v>
       </c>
       <c r="N107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O107" t="n">
-        <v>5.087179487179487</v>
+        <v>4.841269841269841</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/big-data-analytics-in-healthcare/</t>
+          <t>https://insights.blackcoffer.com/impact-of-covid-19-coronavirus-on-the-global-economy/</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>631</v>
+        <v>330</v>
       </c>
       <c r="D108" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E108" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.154929575282682</v>
+        <v>-0.6774193329864731</v>
       </c>
       <c r="G108" t="n">
-        <v>0.112519809647353</v>
+        <v>0.093939393654729</v>
       </c>
       <c r="H108" t="n">
-        <v>16.9375</v>
+        <v>17.67647058823529</v>
       </c>
       <c r="I108" t="n">
-        <v>16.90625</v>
+        <v>17.76470588235294</v>
       </c>
       <c r="J108" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="K108" t="n">
-        <v>0.239852398523985</v>
+        <v>0.183028286189683</v>
       </c>
       <c r="L108" t="n">
-        <v>6.870940959409594</v>
+        <v>7.143799549769992</v>
       </c>
       <c r="M108" t="n">
-        <v>1.810885608856088</v>
+        <v>1.772046589018302</v>
       </c>
       <c r="N108" t="n">
         <v>2</v>
       </c>
       <c r="O108" t="n">
-        <v>5.040590405904059</v>
+        <v>5.038269550748752</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/business-analytics-in-the-healthcare-industry/</t>
+          <t>https://insights.blackcoffer.com/blockchain-for-payments/</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>319</v>
+        <v>505</v>
       </c>
       <c r="D109" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8235293875432531</v>
+        <v>0.037037036351165</v>
       </c>
       <c r="G109" t="n">
-        <v>0.106583071766197</v>
+        <v>0.106930692857562</v>
       </c>
       <c r="H109" t="n">
-        <v>22.32</v>
+        <v>18.31914893617021</v>
       </c>
       <c r="I109" t="n">
-        <v>22.32</v>
+        <v>18.31914893617021</v>
       </c>
       <c r="J109" t="n">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="K109" t="n">
-        <v>0.272401433691756</v>
+        <v>0.226480836236933</v>
       </c>
       <c r="L109" t="n">
-        <v>9.036960573476703</v>
+        <v>7.418251908962858</v>
       </c>
       <c r="M109" t="n">
-        <v>1.922939068100358</v>
+        <v>1.815331010452961</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O109" t="n">
-        <v>5.57168458781362</v>
+        <v>5.362369337979094</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/challenges-and-opportunities-of-big-data-in-healthcare/</t>
+          <t>https://insights.blackcoffer.com/business-analytics-in-the-healthcare-industry/</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>559</v>
+        <v>319</v>
       </c>
       <c r="D110" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E110" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09302325473228701</v>
+        <v>0.8235293875432531</v>
       </c>
       <c r="G110" t="n">
-        <v>0.153846153570937</v>
+        <v>0.106583071766197</v>
       </c>
       <c r="H110" t="n">
-        <v>15.421875</v>
+        <v>22.32</v>
       </c>
       <c r="I110" t="n">
-        <v>15.46875</v>
+        <v>22.32</v>
       </c>
       <c r="J110" t="n">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="K110" t="n">
-        <v>0.212765957446808</v>
+        <v>0.272401433691756</v>
       </c>
       <c r="L110" t="n">
-        <v>6.253856382978724</v>
+        <v>9.036960573476703</v>
       </c>
       <c r="M110" t="n">
-        <v>1.803444782168186</v>
+        <v>1.922939068100358</v>
       </c>
       <c r="N110" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>5.011144883485309</v>
+        <v>5.57168458781362</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/the-future-of-investing/</t>
+          <t>https://insights.blackcoffer.com/big-data-analytics-in-healthcare/</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="D111" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E111" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F111" t="n">
-        <v>0.538461528106509</v>
+        <v>-0.154929575282682</v>
       </c>
       <c r="G111" t="n">
-        <v>0.084828711117734</v>
+        <v>0.112519809647353</v>
       </c>
       <c r="H111" t="n">
-        <v>22.25</v>
+        <v>16.9375</v>
       </c>
       <c r="I111" t="n">
-        <v>22.4375</v>
+        <v>16.90625</v>
       </c>
       <c r="J111" t="n">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="K111" t="n">
-        <v>0.213483146067415</v>
+        <v>0.239852398523985</v>
       </c>
       <c r="L111" t="n">
-        <v>8.985393258426965</v>
+        <v>6.870940959409594</v>
       </c>
       <c r="M111" t="n">
-        <v>1.797752808988764</v>
+        <v>1.810885608856088</v>
       </c>
       <c r="N111" t="n">
         <v>2</v>
       </c>
       <c r="O111" t="n">
-        <v>5.164794007490637</v>
+        <v>5.040590405904059</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/industrial-revolution-4-0-pros-and-cons/</t>
+          <t>https://insights.blackcoffer.com/challenges-and-opportunities-of-big-data-in-healthcare/</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>88</v>
+        <v>559</v>
       </c>
       <c r="D112" t="n">
+        <v>47</v>
+      </c>
+      <c r="E112" t="n">
+        <v>39</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.09302325473228701</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.153846153570937</v>
+      </c>
+      <c r="H112" t="n">
+        <v>15.421875</v>
+      </c>
+      <c r="I112" t="n">
+        <v>15.46875</v>
+      </c>
+      <c r="J112" t="n">
+        <v>210</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.212765957446808</v>
+      </c>
+      <c r="L112" t="n">
+        <v>6.253856382978724</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.803444782168186</v>
+      </c>
+      <c r="N112" t="n">
         <v>7</v>
       </c>
-      <c r="E112" t="n">
-        <v>2</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.5555554938271671</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.102272726110537</v>
-      </c>
-      <c r="H112" t="n">
-        <v>23</v>
-      </c>
-      <c r="I112" t="n">
-        <v>25</v>
-      </c>
-      <c r="J112" t="n">
-        <v>40</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.289855072463768</v>
-      </c>
-      <c r="L112" t="n">
-        <v>9.315942028985509</v>
-      </c>
-      <c r="M112" t="n">
-        <v>1.869565217391304</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
       <c r="O112" t="n">
-        <v>5.434782608695652</v>
+        <v>5.011144883485309</v>
       </c>
     </row>
   </sheetData>
